--- a/Analysis/Output/Reg1_Robct.xlsx
+++ b/Analysis/Output/Reg1_Robct.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">WalkUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleFam</t>
   </si>
   <si>
     <t xml:space="preserve">factor(LUC)Agriculture</t>
@@ -674,40 +677,40 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>3.33238187263979</v>
+        <v>3.35983444725404</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6082041753869</v>
+        <v>13.6047512618505</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244880355239455</v>
+        <v>0.246960373077562</v>
       </c>
       <c r="E2" t="n">
-        <v>0.811019648454635</v>
+        <v>0.809450435919208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.996324979280379</v>
+        <v>1.01684429932689</v>
       </c>
       <c r="G2" t="n">
-        <v>19.0966623546732</v>
+        <v>19.0939897743203</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0521727284473124</v>
+        <v>0.0532546791605837</v>
       </c>
       <c r="I2" t="n">
-        <v>0.959316072589347</v>
+        <v>0.958473431761487</v>
       </c>
       <c r="J2" t="n">
-        <v>12.3306957203201</v>
+        <v>12.3310310988741</v>
       </c>
       <c r="K2" t="n">
-        <v>0.113154782224427</v>
+        <v>0.114303192550255</v>
       </c>
       <c r="L2" t="n">
-        <v>108.97193629752</v>
+        <v>107.880023503741</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0000000000000101279711804225</v>
+        <v>0.0000000000000102130791330334</v>
       </c>
       <c r="N2" t="n">
         <v>12.7394092563406</v>
@@ -751,40 +754,40 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0142326871041887</v>
+        <v>0.0142856896150268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00851425090489492</v>
+        <v>0.00856489435301918</v>
       </c>
       <c r="D3" t="n">
-        <v>1.67163115853283</v>
+        <v>1.66793529799827</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125947746659795</v>
+        <v>0.126692626312565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00539234831746188</v>
+        <v>0.0054400954546611</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00867468477269243</v>
+        <v>0.0087075895987974</v>
       </c>
       <c r="H3" t="n">
-        <v>0.621618935876123</v>
+        <v>0.624753313524609</v>
       </c>
       <c r="I3" t="n">
-        <v>0.548275604474187</v>
+        <v>0.546299052841299</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.000551847490286715</v>
+        <v>-0.000540519977234453</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0146821365580708</v>
+        <v>0.0146991245014146</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0375863204993392</v>
+        <v>-0.0367722565505473</v>
       </c>
       <c r="M3" t="n">
-        <v>0.970766040417405</v>
+        <v>0.971398915768659</v>
       </c>
       <c r="N3" t="n">
         <v>-0.0179874218289795</v>
@@ -828,40 +831,40 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0000224270075132752</v>
+        <v>-0.0000221834759887419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000060481640956033</v>
+        <v>0.0000606376086243504</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.370806862359744</v>
+        <v>-0.365836920221713</v>
       </c>
       <c r="E4" t="n">
-        <v>0.726425358812242</v>
+        <v>0.729905834918437</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00000851983379692683</v>
+        <v>-0.00000834072609453681</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000551042513088474</v>
+        <v>0.0000552521196076373</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.154613003435524</v>
+        <v>-0.150957576899618</v>
       </c>
       <c r="I4" t="n">
-        <v>0.883335438072354</v>
+        <v>0.886069770695522</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000275369217153618</v>
+        <v>0.0000275867893651463</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0000972636582098134</v>
+        <v>0.0000975314753620279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.283116245288248</v>
+        <v>0.282850118515553</v>
       </c>
       <c r="M4" t="n">
-        <v>0.788737099239369</v>
+        <v>0.788932994568586</v>
       </c>
       <c r="N4" t="n">
         <v>0.000237560229757997</v>
@@ -897,40 +900,40 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0508507250748085</v>
+        <v>0.0509257992420833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0122933992445687</v>
+        <v>0.0123350308062618</v>
       </c>
       <c r="D5" t="n">
-        <v>4.13642508985256</v>
+        <v>4.12855063290406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00168799811634438</v>
+        <v>0.0017104501547182</v>
       </c>
       <c r="F5" t="n">
-        <v>0.043583546713758</v>
+        <v>0.0436518692542858</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0110860486700322</v>
+        <v>0.0111282807964882</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9313869180074</v>
+        <v>3.92260673976354</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002405987503378</v>
+        <v>0.00244210903528317</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0392313870922091</v>
+        <v>0.0392469767682065</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0124394240436564</v>
+        <v>0.0125178568650496</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1537944967971</v>
+        <v>3.13527924079286</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00932515714274393</v>
+        <v>0.00963578259867737</v>
       </c>
       <c r="N5" t="n">
         <v>0.0561002254971014</v>
@@ -966,40 +969,40 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0694016931035402</v>
+        <v>0.0693650642384848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0164826942471461</v>
+        <v>0.0164450104929469</v>
       </c>
       <c r="D6" t="n">
-        <v>4.21057941516793</v>
+        <v>4.21800060682448</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00153855916635674</v>
+        <v>0.00151955442765871</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0651635727331065</v>
+        <v>0.065128943260407</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0171452078408789</v>
+        <v>0.0170979495326766</v>
       </c>
       <c r="H6" t="n">
-        <v>3.80068724379874</v>
+        <v>3.80916689079802</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00306584402595534</v>
+        <v>0.00302145731103234</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0524266954686785</v>
+        <v>0.0524188328439921</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0183782629088427</v>
+        <v>0.0183406902111954</v>
       </c>
       <c r="L6" t="n">
-        <v>2.85264694104758</v>
+        <v>2.85806216889237</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0160473243539987</v>
+        <v>0.0158931565047572</v>
       </c>
       <c r="N6" t="n">
         <v>0.063798357270528</v>
@@ -1035,40 +1038,40 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0595677962468458</v>
+        <v>0.0594993241687033</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0159343069827037</v>
+        <v>0.0158897615984424</v>
       </c>
       <c r="D7" t="n">
-        <v>3.73833617687328</v>
+        <v>3.74450703996312</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00318327374313781</v>
+        <v>0.00314912454161025</v>
       </c>
       <c r="F7" t="n">
-        <v>0.052278095564074</v>
+        <v>0.0522174077982922</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0164478005516525</v>
+        <v>0.0163994982767119</v>
       </c>
       <c r="H7" t="n">
-        <v>3.17842470182566</v>
+        <v>3.184085690746</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00862376337026947</v>
+        <v>0.00853676904715688</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0434336889413659</v>
+        <v>0.043420264579535</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0162682713564724</v>
+        <v>0.0162066635302081</v>
       </c>
       <c r="L7" t="n">
-        <v>2.66984045136951</v>
+        <v>2.6791612288737</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0215312262791875</v>
+        <v>0.02117346342467</v>
       </c>
       <c r="N7" t="n">
         <v>0.0519056036203231</v>
@@ -1104,40 +1107,40 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0243359002434978</v>
+        <v>0.0242086828744125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.023993548036527</v>
+        <v>0.0240408919538904</v>
       </c>
       <c r="D8" t="n">
-        <v>1.01426851112014</v>
+        <v>1.00697939663986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.335600627478588</v>
+        <v>0.338915647178028</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0271237130272646</v>
+        <v>0.0270125077756054</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0254576769378182</v>
+        <v>0.02545958955011</v>
       </c>
       <c r="H8" t="n">
-        <v>1.06544336678935</v>
+        <v>1.06099541480977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.313014001029954</v>
+        <v>0.314930610622062</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0200161040756543</v>
+        <v>0.0199906321401703</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0261339098599272</v>
+        <v>0.0261197805836375</v>
       </c>
       <c r="L8" t="n">
-        <v>0.765905453219088</v>
+        <v>0.76534456620563</v>
       </c>
       <c r="M8" t="n">
-        <v>0.462332908137945</v>
+        <v>0.462651709624245</v>
       </c>
       <c r="N8" t="n">
         <v>0.0352977519218919</v>
@@ -1173,40 +1176,40 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0592605938314914</v>
+        <v>0.0592050379564312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0347781261562449</v>
+        <v>0.0348040478714779</v>
       </c>
       <c r="D9" t="n">
-        <v>1.70396166732089</v>
+        <v>1.70109632577968</v>
       </c>
       <c r="E9" t="n">
-        <v>0.119162771766693</v>
+        <v>0.119712840364005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0627509534029381</v>
+        <v>0.0626990687924569</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0363345655727077</v>
+        <v>0.0363459924685276</v>
       </c>
       <c r="H9" t="n">
-        <v>1.72703188861223</v>
+        <v>1.72506140386038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.114811701282869</v>
+        <v>0.115177216175673</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0539103989509853</v>
+        <v>0.0538985325851788</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0356328965778689</v>
+        <v>0.0356400045384258</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51293900099237</v>
+        <v>1.51230431317895</v>
       </c>
       <c r="M9" t="n">
-        <v>0.161176997663081</v>
+        <v>0.161336014415108</v>
       </c>
       <c r="N9" t="n">
         <v>0.0863912677593326</v>
@@ -1242,40 +1245,40 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.103279710371766</v>
+        <v>0.103180149084656</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0369151186988125</v>
+        <v>0.036955153721929</v>
       </c>
       <c r="D10" t="n">
-        <v>2.79776183883945</v>
+        <v>2.79203679846768</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0189244199350984</v>
+        <v>0.0191119010312274</v>
       </c>
       <c r="F10" t="n">
-        <v>0.106864163291647</v>
+        <v>0.106768421499798</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0379477603224983</v>
+        <v>0.0379699552654466</v>
       </c>
       <c r="H10" t="n">
-        <v>2.81608617698288</v>
+        <v>2.81191854858357</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0183391179657626</v>
+        <v>0.018471446191052</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0946718543284314</v>
+        <v>0.094650100341927</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0355556370464298</v>
+        <v>0.0355481603932572</v>
       </c>
       <c r="L10" t="n">
-        <v>2.66263980040086</v>
+        <v>2.6625878609426</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0238379079569312</v>
+        <v>0.0238409633411858</v>
       </c>
       <c r="N10" t="n">
         <v>0.129999168140554</v>
@@ -1311,40 +1314,40 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0571004214150636</v>
+        <v>0.0567653846024118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.081280040621272</v>
+        <v>0.0814773445486544</v>
       </c>
       <c r="D11" t="n">
-        <v>0.702514676156789</v>
+        <v>0.696701456298863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.501663661074939</v>
+        <v>0.505111517632561</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0549874694428156</v>
+        <v>0.0546708811640236</v>
       </c>
       <c r="G11" t="n">
-        <v>0.092870650470845</v>
+        <v>0.0929582707514798</v>
       </c>
       <c r="H11" t="n">
-        <v>0.592086619012945</v>
+        <v>0.58812282890012</v>
       </c>
       <c r="I11" t="n">
-        <v>0.569640741570646</v>
+        <v>0.572175599670817</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0333088478652843</v>
+        <v>0.0332392675984773</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0866681660551969</v>
+        <v>0.0867398200493194</v>
       </c>
       <c r="L11" t="n">
-        <v>0.384326210895828</v>
+        <v>0.383206554723976</v>
       </c>
       <c r="M11" t="n">
-        <v>0.710444368167509</v>
+        <v>0.71124326366105</v>
       </c>
       <c r="N11" t="n">
         <v>0.0632823577690674</v>
@@ -1380,40 +1383,40 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0596070761463693</v>
+        <v>0.0596637048651615</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0275094177676239</v>
+        <v>0.0275701101205791</v>
       </c>
       <c r="D12" t="n">
-        <v>2.1667879942018</v>
+        <v>2.16407205499796</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0503898000808125</v>
+        <v>0.0506319973154181</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0498262155772468</v>
+        <v>0.0498826947305768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0305890631412248</v>
+        <v>0.0306472500742366</v>
       </c>
       <c r="H12" t="n">
-        <v>1.62888988614025</v>
+        <v>1.62764015073934</v>
       </c>
       <c r="I12" t="n">
-        <v>0.128250103450096</v>
+        <v>0.12851019412569</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0138009688192776</v>
+        <v>0.0138111515822118</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0269311625418832</v>
+        <v>0.0269616449181227</v>
       </c>
       <c r="L12" t="n">
-        <v>0.512453511719533</v>
+        <v>0.512251816391528</v>
       </c>
       <c r="M12" t="n">
-        <v>0.617145460419272</v>
+        <v>0.617280451371083</v>
       </c>
       <c r="N12" t="n">
         <v>-0.0350535177470368</v>
@@ -1441,40 +1444,40 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0588610217752032</v>
+        <v>0.05887086340302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.029134482530736</v>
+        <v>0.0291115793152701</v>
       </c>
       <c r="D13" t="n">
-        <v>2.02032151122322</v>
+        <v>2.02224904274225</v>
       </c>
       <c r="E13" t="n">
-        <v>0.063906932013522</v>
+        <v>0.0636835960883826</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0654116657200737</v>
+        <v>0.0654217648826407</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0361815268100251</v>
+        <v>0.036154304787685</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8078746666365</v>
+        <v>1.80951522278821</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0933397888807377</v>
+        <v>0.0930718257729065</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0838354241892682</v>
+        <v>0.0838403560501049</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0421225122531309</v>
+        <v>0.0421081587391346</v>
       </c>
       <c r="L13" t="n">
-        <v>1.9902759760735</v>
+        <v>1.99107153009246</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0674685206227787</v>
+        <v>0.0673694497677908</v>
       </c>
       <c r="N13" t="n">
         <v>0.103320253464976</v>
@@ -1502,40 +1505,40 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0272485976276531</v>
+        <v>0.0273160622802626</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0236541346603294</v>
+        <v>0.0236252144505912</v>
       </c>
       <c r="D14" t="n">
-        <v>1.15195918256743</v>
+        <v>1.15622494506411</v>
       </c>
       <c r="E14" t="n">
-        <v>0.272901601144651</v>
+        <v>0.271213445520108</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0228101962273039</v>
+        <v>0.022870058745579</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0261413401447054</v>
+        <v>0.026116785521421</v>
       </c>
       <c r="H14" t="n">
-        <v>0.872571800108107</v>
+        <v>0.875684288436682</v>
       </c>
       <c r="I14" t="n">
-        <v>0.401021903314273</v>
+        <v>0.399390249754346</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00673881706007984</v>
+        <v>0.00675320849446954</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0318917620108897</v>
+        <v>0.0318726368580444</v>
       </c>
       <c r="L14" t="n">
-        <v>0.211302751405796</v>
+        <v>0.211881072926198</v>
       </c>
       <c r="M14" t="n">
-        <v>0.836453530032305</v>
+        <v>0.836011296982588</v>
       </c>
       <c r="N14" t="n">
         <v>-0.00495148101687482</v>
@@ -1563,40 +1566,40 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0317595876212739</v>
+        <v>-0.0315370426826771</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0221435173271883</v>
+        <v>0.0219530605598792</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.43426119491318</v>
+        <v>-1.43656701518481</v>
       </c>
       <c r="E15" t="n">
-        <v>0.183573334611851</v>
+        <v>0.182905798927388</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0315020429710836</v>
+        <v>-0.0312957957468869</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0216498800795882</v>
+        <v>0.0215199861936362</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.45506778121991</v>
+        <v>-1.45426653461988</v>
       </c>
       <c r="I15" t="n">
-        <v>0.177904386775751</v>
+        <v>0.178088229225614</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0358244736879817</v>
+        <v>-0.0357776304405096</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0265141204510315</v>
+        <v>0.0261687950033382</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.35114697672681</v>
+        <v>-1.36718677478064</v>
       </c>
       <c r="M15" t="n">
-        <v>0.208140816671658</v>
+        <v>0.20320658617479</v>
       </c>
       <c r="N15" t="n">
         <v>-0.101409378683361</v>
@@ -1624,40 +1627,40 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00700781083757074</v>
+        <v>-0.00707993792102429</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0116250525898256</v>
+        <v>0.0115640345051529</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.602819710570951</v>
+        <v>-0.612237702842335</v>
       </c>
       <c r="E16" t="n">
-        <v>0.560245285629239</v>
+        <v>0.554243094305451</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.00808477058170868</v>
+        <v>-0.00815104112655815</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0116394957724314</v>
+        <v>0.0116185915838077</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.694598008348245</v>
+        <v>-0.701551566535647</v>
       </c>
       <c r="I16" t="n">
-        <v>0.503279407845886</v>
+        <v>0.499115499581257</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00329465154860429</v>
+        <v>0.00328027903740587</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00742811778247801</v>
+        <v>0.00742002209555793</v>
       </c>
       <c r="L16" t="n">
-        <v>0.443537871245924</v>
+        <v>0.442084807182669</v>
       </c>
       <c r="M16" t="n">
-        <v>0.666863127519928</v>
+        <v>0.667878668644982</v>
       </c>
       <c r="N16" t="n">
         <v>0.0842476228452846</v>
@@ -1685,40 +1688,40 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000516673974375139</v>
+        <v>0.000516673409746264</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000676322981816864</v>
+        <v>0.0000676347078554725</v>
       </c>
       <c r="D17" t="n">
-        <v>7.63945612179486</v>
+        <v>7.6391755968006</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0000348306253445204</v>
+        <v>0.0000348586225308931</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000562728850541839</v>
+        <v>0.00056272573316025</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000726838644713516</v>
+        <v>0.0000726854189522491</v>
       </c>
       <c r="H17" t="n">
-        <v>7.74214269748466</v>
+        <v>7.7419342320904</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000378326196204594</v>
+        <v>0.0000378546847487444</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000654233286197288</v>
+        <v>0.000654236799543195</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000061852662592283</v>
+        <v>0.0000618861476413388</v>
       </c>
       <c r="L17" t="n">
-        <v>10.5772857428924</v>
+        <v>10.5716194088348</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000217221651335959</v>
+        <v>0.00000218809391184032</v>
       </c>
       <c r="N17" t="n">
         <v>0.00072083180661733</v>
@@ -1746,40 +1749,40 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0223025204460882</v>
+        <v>-0.0223090265767576</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00691269238135648</v>
+        <v>0.006920127511732</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.22631461313655</v>
+        <v>-3.2237883679074</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0133253399836638</v>
+        <v>0.0133651649154708</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0232071705438778</v>
+        <v>-0.0232154588940043</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00597190715739425</v>
+        <v>0.00598292765312808</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.88605682108492</v>
+        <v>-3.88028407494891</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00566957237308648</v>
+        <v>0.00570330015385751</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.020487982698144</v>
+        <v>-0.0204900982443043</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00734480015018171</v>
+        <v>0.00735418009091824</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.78945407352399</v>
+        <v>-2.78618391050931</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0256993673135296</v>
+        <v>0.0257952866981249</v>
       </c>
       <c r="N18" t="n">
         <v>-0.0241936541989447</v>
@@ -1807,40 +1810,40 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.22087364349488</v>
+        <v>0.220924170695823</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0931313534863198</v>
+        <v>0.0931915780099363</v>
       </c>
       <c r="D19" t="n">
-        <v>2.3716357083474</v>
+        <v>2.37064523869601</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0485050458711002</v>
+        <v>0.0485674451982342</v>
       </c>
       <c r="F19" t="n">
-        <v>0.240213101393694</v>
+        <v>0.240287391153845</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0880369305868885</v>
+        <v>0.088128867820062</v>
       </c>
       <c r="H19" t="n">
-        <v>2.72854925532206</v>
+        <v>2.72654576301211</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0293208167227651</v>
+        <v>0.0293899348698652</v>
       </c>
       <c r="J19" t="n">
-        <v>0.239034089758193</v>
+        <v>0.239055306348356</v>
       </c>
       <c r="K19" t="n">
-        <v>0.10256219842211</v>
+        <v>0.102637905694627</v>
       </c>
       <c r="L19" t="n">
-        <v>2.33062564410343</v>
+        <v>2.32911325236512</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0519856438919134</v>
+        <v>0.052072632874241</v>
       </c>
       <c r="N19" t="n">
         <v>0.267764710783338</v>
@@ -1868,40 +1871,40 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00441739514811591</v>
+        <v>0.00525023780534521</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0941244637327326</v>
+        <v>0.094704919694736</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0469314243389386</v>
+        <v>0.0554378571067732</v>
       </c>
       <c r="E20" t="n">
-        <v>0.964102925452364</v>
+        <v>0.957602246441572</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.017325884287474</v>
+        <v>-0.0165785976849553</v>
       </c>
       <c r="G20" t="n">
-        <v>0.109394661632531</v>
+        <v>0.109849903353712</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.158379614040707</v>
+        <v>-0.150920457631836</v>
       </c>
       <c r="I20" t="n">
-        <v>0.879394004136385</v>
+        <v>0.885018885931024</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0365527182448359</v>
+        <v>0.0367187597328825</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0887708023637317</v>
+        <v>0.0896663402821452</v>
       </c>
       <c r="L20" t="n">
-        <v>0.411765099239093</v>
+        <v>0.40950438723542</v>
       </c>
       <c r="M20" t="n">
-        <v>0.694931411850886</v>
+        <v>0.696489861259316</v>
       </c>
       <c r="N20" t="n">
         <v>-0.0161876492318313</v>
@@ -1929,40 +1932,40 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.099702560018576</v>
+        <v>0.0996220967803951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0130582411105763</v>
+        <v>0.012973036281607</v>
       </c>
       <c r="D21" t="n">
-        <v>7.6352212502665</v>
+        <v>7.67916581884827</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000104314132352721</v>
+        <v>0.00000987533836000405</v>
       </c>
       <c r="F21" t="n">
-        <v>0.103071697852879</v>
+        <v>0.103006072501952</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0159786137097509</v>
+        <v>0.0159458412551885</v>
       </c>
       <c r="H21" t="n">
-        <v>6.45060327041888</v>
+        <v>6.4597452623226</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0000493096518490161</v>
+        <v>0.0000486627585031061</v>
       </c>
       <c r="J21" t="n">
-        <v>0.131717236470443</v>
+        <v>0.131703846831324</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0174238255500063</v>
+        <v>0.0173932128697982</v>
       </c>
       <c r="L21" t="n">
-        <v>7.55960486934484</v>
+        <v>7.5721402260313</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0000113066937380853</v>
+        <v>0.0000111224236095616</v>
       </c>
       <c r="N21" t="n">
         <v>0.1535453714336</v>
@@ -1990,40 +1993,40 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.055137384066524</v>
+        <v>0.0551076409069184</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00477015874024136</v>
+        <v>0.00476746075134859</v>
       </c>
       <c r="D22" t="n">
-        <v>11.5588153495567</v>
+        <v>11.5591178996764</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00000012670195974265</v>
+        <v>0.00000012656507017732</v>
       </c>
       <c r="F22" t="n">
-        <v>0.056168196803491</v>
+        <v>0.0561473524569197</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0067931128058906</v>
+        <v>0.00680180447996116</v>
       </c>
       <c r="H22" t="n">
-        <v>8.26840336800902</v>
+        <v>8.25477307122482</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00000390241346605831</v>
+        <v>0.00000396451211261911</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0689035927004067</v>
+        <v>0.0688992957556441</v>
       </c>
       <c r="K22" t="n">
-        <v>0.011636106023103</v>
+        <v>0.011635271963603</v>
       </c>
       <c r="L22" t="n">
-        <v>5.9215335923892</v>
+        <v>5.92158876656875</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0000880113252478367</v>
+        <v>0.0000879805942078022</v>
       </c>
       <c r="N22" t="n">
         <v>0.0724727440565467</v>
@@ -2051,40 +2054,40 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09166918526748</v>
+        <v>-0.0916745935871681</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0119517910469047</v>
+        <v>0.0119758349537755</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.66991197450867</v>
+        <v>-7.65496468020939</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00000712884362635487</v>
+        <v>0.00000726653312459476</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0984395569017825</v>
+        <v>-0.0984416600468242</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0117561823008822</v>
+        <v>0.0117836415552558</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.37342892295871</v>
+        <v>-8.35409491923292</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0000029942998708788</v>
+        <v>0.00000306472727111144</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.110245164902489</v>
+        <v>-0.110245803829459</v>
       </c>
       <c r="K23" t="n">
-        <v>0.018187091103175</v>
+        <v>0.0181976479715363</v>
       </c>
       <c r="L23" t="n">
-        <v>-6.06172610435999</v>
+        <v>-6.058244669965</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0000658574862333875</v>
+        <v>0.0000661988032117761</v>
       </c>
       <c r="N23" t="n">
         <v>-0.0964067679647062</v>
@@ -2112,40 +2115,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.020116709821631</v>
+        <v>-0.0201056474143273</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0207862829561306</v>
+        <v>0.0207588386202832</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.967787740794605</v>
+        <v>-0.9685343087875</v>
       </c>
       <c r="E24" t="n">
-        <v>0.355746828704703</v>
+        <v>0.355392350141812</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.019761285037874</v>
+        <v>-0.0197424201507302</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0199593644335802</v>
+        <v>0.019929760494368</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.99007586657554</v>
+        <v>-0.990599970145617</v>
       </c>
       <c r="I24" t="n">
-        <v>0.345304963824272</v>
+        <v>0.345062112675951</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0048176341169317</v>
+        <v>0.00482142645703411</v>
       </c>
       <c r="K24" t="n">
-        <v>0.026129472284419</v>
+        <v>0.0261239752434159</v>
       </c>
       <c r="L24" t="n">
-        <v>0.18437548468227</v>
+        <v>0.184559448250482</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8573627343706</v>
+        <v>0.857222301231442</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2165,40 +2168,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0263200056863097</v>
+        <v>0.0260224632339729</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0606638180053687</v>
+        <v>0.0606221364009852</v>
       </c>
       <c r="D25" t="n">
-        <v>0.433866620198228</v>
+        <v>0.4292567827344</v>
       </c>
       <c r="E25" t="n">
-        <v>0.67864428705135</v>
+        <v>0.681817814991839</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0154736012335237</v>
+        <v>0.0152118192053011</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0620247176467674</v>
+        <v>0.0620398920191264</v>
       </c>
       <c r="H25" t="n">
-        <v>0.24947475491378</v>
+        <v>0.245194159922319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.810837363465881</v>
+        <v>0.814004139278608</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0379595130465977</v>
+        <v>0.0379013988853825</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0849181319440043</v>
+        <v>0.0849704180943999</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4470130486576</v>
+        <v>0.446054047224706</v>
       </c>
       <c r="M25" t="n">
-        <v>0.669725620508085</v>
+        <v>0.670374085611381</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2218,40 +2221,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0360555254234689</v>
+        <v>-0.0368515025676918</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0115123710471021</v>
+        <v>0.0119342751502116</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.13189396658169</v>
+        <v>-3.08787103563961</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00944466061484641</v>
+        <v>0.0102504689111017</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0331472985315894</v>
+        <v>-0.0338785164726405</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0111513860188576</v>
+        <v>0.0117316928334895</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.97248238699078</v>
+        <v>-2.88777731854097</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0125367222529298</v>
+        <v>0.0146405572817911</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0159426096335372</v>
+        <v>-0.0161067436870708</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0137851686646806</v>
+        <v>0.0136802008178546</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.15650450287084</v>
+        <v>-1.17737626088421</v>
       </c>
       <c r="M26" t="n">
-        <v>0.271772047092388</v>
+        <v>0.263772523743825</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2271,40 +2274,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0612959694799184</v>
+        <v>0.0603689244421024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0242135125553012</v>
+        <v>0.0232594176053319</v>
       </c>
       <c r="D27" t="n">
-        <v>2.5314777994281</v>
+        <v>2.59546156599655</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0360988664159394</v>
+        <v>0.0329814764125426</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0813125449111554</v>
+        <v>0.080468546512045</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0252065544846267</v>
+        <v>0.0242071546847048</v>
       </c>
       <c r="H27" t="n">
-        <v>3.22584925126309</v>
+        <v>3.32416376728854</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0125894740309151</v>
+        <v>0.0110370118429152</v>
       </c>
       <c r="J27" t="n">
-        <v>0.078866866018056</v>
+        <v>0.0786788905664705</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0297474152457369</v>
+        <v>0.0283591478437131</v>
       </c>
       <c r="L27" t="n">
-        <v>2.65121743743294</v>
+        <v>2.77437428656421</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0295323491520334</v>
+        <v>0.024648196185484</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2324,40 +2327,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0115461778718707</v>
+        <v>0.0101161249349515</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0259655114278201</v>
+        <v>0.027370709631121</v>
       </c>
       <c r="D28" t="n">
-        <v>0.444673616538123</v>
+        <v>0.369596735754681</v>
       </c>
       <c r="E28" t="n">
-        <v>0.664549648058967</v>
+        <v>0.7181538172074</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0144590770800859</v>
+        <v>0.0131982548099979</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0290715581380349</v>
+        <v>0.0308350479689291</v>
       </c>
       <c r="H28" t="n">
-        <v>0.497361614105191</v>
+        <v>0.428027704814894</v>
       </c>
       <c r="I28" t="n">
-        <v>0.628020390352274</v>
+        <v>0.676260229945199</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0152264814168877</v>
+        <v>-0.015507759582939</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0370313869215232</v>
+        <v>0.0390914042402071</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.411177724700283</v>
+        <v>-0.396705103957065</v>
       </c>
       <c r="M28" t="n">
-        <v>0.688126277232251</v>
+        <v>0.698459446693834</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2377,40 +2380,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0130906857637819</v>
+        <v>0.0128228471084707</v>
       </c>
       <c r="C29" t="n">
-        <v>0.108699782924531</v>
+        <v>0.10846287907202</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120429732347033</v>
+        <v>0.118223370227488</v>
       </c>
       <c r="E29" t="n">
-        <v>0.917650001173834</v>
+        <v>0.919143966391426</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0315091842968932</v>
+        <v>0.0312877197416509</v>
       </c>
       <c r="G29" t="n">
-        <v>0.130441264410518</v>
+        <v>0.130369051302736</v>
       </c>
       <c r="H29" t="n">
-        <v>0.241558408984208</v>
+        <v>0.239993460326686</v>
       </c>
       <c r="I29" t="n">
-        <v>0.837054529219937</v>
+        <v>0.838068325434763</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0384441286516448</v>
+        <v>0.0383965978350771</v>
       </c>
       <c r="K29" t="n">
-        <v>0.126925200025004</v>
+        <v>0.126848239312697</v>
       </c>
       <c r="L29" t="n">
-        <v>0.302888068280147</v>
+        <v>0.302697128814098</v>
       </c>
       <c r="M29" t="n">
-        <v>0.797573086239525</v>
+        <v>0.797682814561256</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2430,40 +2433,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00404980627464238</v>
+        <v>0.00385422492081636</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0127699177700178</v>
+        <v>0.0125202820735567</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31713644109368</v>
+        <v>0.307838505408487</v>
       </c>
       <c r="E30" t="n">
-        <v>0.756550705186455</v>
+        <v>0.763445258056882</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00349300940411177</v>
+        <v>-0.00367213825038611</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0139355837855001</v>
+        <v>0.013666963612296</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.250653970287648</v>
+        <v>-0.268687204748415</v>
       </c>
       <c r="I30" t="n">
-        <v>0.806283959207941</v>
+        <v>0.792693248206592</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0311785888107037</v>
+        <v>-0.0312180124110249</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0277738032343386</v>
+        <v>0.027685297746778</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.12258982133767</v>
+        <v>-1.12760255268188</v>
       </c>
       <c r="M30" t="n">
-        <v>0.283283949979573</v>
+        <v>0.281242873927476</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2483,40 +2486,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0914350493541494</v>
+        <v>-0.0349777583250185</v>
       </c>
       <c r="C31" t="n">
-        <v>0.113305486018034</v>
+        <v>0.0759544373144009</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.806978131134765</v>
+        <v>-0.460509741915852</v>
       </c>
       <c r="E31" t="n">
-        <v>0.510452063322176</v>
+        <v>0.665996473626413</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.137832582236937</v>
+        <v>-0.0313976537727454</v>
       </c>
       <c r="G31" t="n">
-        <v>0.111133906679925</v>
+        <v>0.0767209282077815</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.24023879259375</v>
+        <v>-0.409244967523227</v>
       </c>
       <c r="I31" t="n">
-        <v>0.34976422750665</v>
+        <v>0.700695930764744</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0381854821671297</v>
+        <v>-0.00700817312928304</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0563914744594392</v>
+        <v>0.0815729950680093</v>
       </c>
       <c r="L31" t="n">
-        <v>0.677149915535467</v>
+        <v>-0.0859129068810108</v>
       </c>
       <c r="M31" t="n">
-        <v>0.574360673575006</v>
+        <v>0.935144405994863</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2536,40 +2539,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0497362669924334</v>
+        <v>-0.0918440234219397</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0539127523723212</v>
+        <v>0.113696633813259</v>
       </c>
       <c r="D32" t="n">
-        <v>0.922532514180596</v>
+        <v>-0.807798967670311</v>
       </c>
       <c r="E32" t="n">
-        <v>0.376358909982546</v>
+        <v>0.510076023639215</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0668975380261727</v>
+        <v>-0.138141113614298</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0587240653054061</v>
+        <v>0.111504239860396</v>
       </c>
       <c r="H32" t="n">
-        <v>1.1391843817055</v>
+        <v>-1.2388866449137</v>
       </c>
       <c r="I32" t="n">
-        <v>0.279344249232078</v>
+        <v>0.350163093789373</v>
       </c>
       <c r="J32" t="n">
-        <v>0.101899658669805</v>
+        <v>0.0381436065751804</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0673159193001698</v>
+        <v>0.0561211068273809</v>
       </c>
       <c r="L32" t="n">
-        <v>1.51375276055315</v>
+        <v>0.6796659711738</v>
       </c>
       <c r="M32" t="n">
-        <v>0.161491804658622</v>
+        <v>0.573082400366221</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2589,40 +2592,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0302228872930258</v>
+        <v>0.0492267059043972</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0276778494086609</v>
+        <v>0.0541144421689633</v>
       </c>
       <c r="D33" t="n">
-        <v>1.09195215447514</v>
+        <v>0.909677785288722</v>
       </c>
       <c r="E33" t="n">
-        <v>0.306938130867297</v>
+        <v>0.382789844686061</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0432170092701712</v>
+        <v>0.0664109032053575</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0338004197949264</v>
+        <v>0.0589609944407195</v>
       </c>
       <c r="H33" t="n">
-        <v>1.27859386162589</v>
+        <v>1.12635317357356</v>
       </c>
       <c r="I33" t="n">
-        <v>0.236714999742992</v>
+        <v>0.284480524167301</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0374475868236426</v>
+        <v>0.101793700003426</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0447263486840669</v>
+        <v>0.0675185481189784</v>
       </c>
       <c r="L33" t="n">
-        <v>0.837260092214563</v>
+        <v>1.50764053492455</v>
       </c>
       <c r="M33" t="n">
-        <v>0.429036646092617</v>
+        <v>0.162999393991022</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2642,40 +2645,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0207838400494011</v>
+        <v>0.0299749680954638</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0566053105826971</v>
+        <v>0.0278517835684175</v>
       </c>
       <c r="D34" t="n">
-        <v>0.367171204175924</v>
+        <v>1.07623154624302</v>
       </c>
       <c r="E34" t="n">
-        <v>0.719606722636996</v>
+        <v>0.313655549012225</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0296380562627892</v>
+        <v>0.0430164223694102</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0572628180653296</v>
+        <v>0.0339192980643689</v>
       </c>
       <c r="H34" t="n">
-        <v>0.51757942176328</v>
+        <v>1.26819907321719</v>
       </c>
       <c r="I34" t="n">
-        <v>0.61373638989028</v>
+        <v>0.240386308748113</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0258059898017283</v>
+        <v>0.0374092013392068</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0513465350075717</v>
+        <v>0.0447644558709469</v>
       </c>
       <c r="L34" t="n">
-        <v>0.50258483455452</v>
+        <v>0.835689848371109</v>
       </c>
       <c r="M34" t="n">
-        <v>0.625732267470563</v>
+        <v>0.429975748676796</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2695,40 +2698,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0652278311378956</v>
+        <v>0.020308334925192</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0675719227359794</v>
+        <v>0.0566462871253392</v>
       </c>
       <c r="D35" t="n">
-        <v>0.965309680364687</v>
+        <v>0.358511315671167</v>
       </c>
       <c r="E35" t="n">
-        <v>0.357058288485143</v>
+        <v>0.725953232965202</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0603754320537446</v>
+        <v>0.029199494605144</v>
       </c>
       <c r="G35" t="n">
-        <v>0.077875198586819</v>
+        <v>0.0572942576537506</v>
       </c>
       <c r="H35" t="n">
-        <v>0.775284469887229</v>
+        <v>0.509640857581345</v>
       </c>
       <c r="I35" t="n">
-        <v>0.456522958238632</v>
+        <v>0.619181513811361</v>
       </c>
       <c r="J35" t="n">
-        <v>0.136204288364045</v>
+        <v>0.0257080169242747</v>
       </c>
       <c r="K35" t="n">
-        <v>0.081260445418677</v>
+        <v>0.0516545726702511</v>
       </c>
       <c r="L35" t="n">
-        <v>1.67614498865078</v>
+        <v>0.497691019309901</v>
       </c>
       <c r="M35" t="n">
-        <v>0.128940979778881</v>
+        <v>0.629136173434534</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2748,40 +2751,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579914900880346</v>
+        <v>0.0645910346106164</v>
       </c>
       <c r="C36" t="n">
-        <v>0.105470836175214</v>
+        <v>0.0684462955964897</v>
       </c>
       <c r="D36" t="n">
-        <v>0.549834363612099</v>
+        <v>0.943674658324811</v>
       </c>
       <c r="E36" t="n">
-        <v>0.593176876248209</v>
+        <v>0.367449435977946</v>
       </c>
       <c r="F36" t="n">
-        <v>0.137853845818171</v>
+        <v>0.0598173619679952</v>
       </c>
       <c r="G36" t="n">
-        <v>0.102027341610769</v>
+        <v>0.078505383382321</v>
       </c>
       <c r="H36" t="n">
-        <v>1.35114611085407</v>
+        <v>0.761952357797997</v>
       </c>
       <c r="I36" t="n">
-        <v>0.202932813769049</v>
+        <v>0.464051715832813</v>
       </c>
       <c r="J36" t="n">
-        <v>0.235269975990055</v>
+        <v>0.136084453108704</v>
       </c>
       <c r="K36" t="n">
-        <v>0.113479817088647</v>
+        <v>0.0816924337538548</v>
       </c>
       <c r="L36" t="n">
-        <v>2.07323189291246</v>
+        <v>1.66581465204888</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0659924287234688</v>
+        <v>0.13096201608395</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2801,40 +2804,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.249918263571899</v>
+        <v>0.0574789180818106</v>
       </c>
       <c r="C37" t="n">
-        <v>0.139697625424463</v>
+        <v>0.106099914489614</v>
       </c>
       <c r="D37" t="n">
-        <v>1.78899435700884</v>
+        <v>0.541743302605933</v>
       </c>
       <c r="E37" t="n">
-        <v>0.15835406289798</v>
+        <v>0.59856016701522</v>
       </c>
       <c r="F37" t="n">
-        <v>0.500099643864696</v>
+        <v>0.137341122476352</v>
       </c>
       <c r="G37" t="n">
-        <v>0.136007788163282</v>
+        <v>0.10234363485073</v>
       </c>
       <c r="H37" t="n">
-        <v>3.67699269739105</v>
+        <v>1.34196056918113</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0242436584867973</v>
+        <v>0.205822175829427</v>
       </c>
       <c r="J37" t="n">
-        <v>0.587820740906921</v>
+        <v>0.235164899205303</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0944878386025792</v>
+        <v>0.113652187339861</v>
       </c>
       <c r="L37" t="n">
-        <v>6.22112590996314</v>
+        <v>2.06916298497692</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00568638425951024</v>
+        <v>0.0664669605650469</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2854,40 +2857,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.268473544574263</v>
+        <v>0.249446396333124</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0203231604629567</v>
+        <v>0.140401545782103</v>
       </c>
       <c r="D38" t="n">
-        <v>13.2102260897666</v>
+        <v>1.77666417377095</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00491355992539256</v>
+        <v>0.16028738564829</v>
       </c>
       <c r="F38" t="n">
-        <v>0.224009179356972</v>
+        <v>0.499575435773324</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0410297898889408</v>
+        <v>0.136497276025228</v>
       </c>
       <c r="H38" t="n">
-        <v>5.45967161819057</v>
+        <v>3.65996634014139</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0323537003623037</v>
+        <v>0.0244283060095386</v>
       </c>
       <c r="J38" t="n">
-        <v>0.220474385965898</v>
+        <v>0.587714842648742</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0456651091696325</v>
+        <v>0.0947551523080754</v>
       </c>
       <c r="L38" t="n">
-        <v>4.82807092712513</v>
+        <v>6.20245789630433</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0399960356418321</v>
+        <v>0.00567625899004498</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2907,40 +2910,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.323076861364287</v>
+        <v>0.268448894833242</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0345499159207155</v>
+        <v>0.0203278729283599</v>
       </c>
       <c r="D39" t="n">
-        <v>9.35101729641479</v>
+        <v>13.2059510495426</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00181910779427917</v>
+        <v>0.00491723313268522</v>
       </c>
       <c r="F39" t="n">
-        <v>0.27419927941473</v>
+        <v>0.224001134457364</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0592388497181094</v>
+        <v>0.0410268354982477</v>
       </c>
       <c r="H39" t="n">
-        <v>4.62870701776822</v>
+        <v>5.45986868684841</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0173328240670101</v>
+        <v>0.0323526020124648</v>
       </c>
       <c r="J39" t="n">
-        <v>0.27753491487204</v>
+        <v>0.220470928780063</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0655791322506145</v>
+        <v>0.0456721164024177</v>
       </c>
       <c r="L39" t="n">
-        <v>4.23206140958719</v>
+        <v>4.82725448581121</v>
       </c>
       <c r="M39" t="n">
-        <v>0.022212984929284</v>
+        <v>0.0400117480077045</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2960,40 +2963,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.373136482377134</v>
+        <v>0.322998612171513</v>
       </c>
       <c r="C40" t="n">
-        <v>0.108176149450624</v>
+        <v>0.0345562294587173</v>
       </c>
       <c r="D40" t="n">
-        <v>3.4493415070893</v>
+        <v>9.34704443253522</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0091124604829461</v>
+        <v>0.00182197797068513</v>
       </c>
       <c r="F40" t="n">
-        <v>0.31195912432025</v>
+        <v>0.274165056217081</v>
       </c>
       <c r="G40" t="n">
-        <v>0.139804069370819</v>
+        <v>0.0592361099460373</v>
       </c>
       <c r="H40" t="n">
-        <v>2.23140231700126</v>
+        <v>4.62834336128485</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0570182376240159</v>
+        <v>0.0173382770535322</v>
       </c>
       <c r="J40" t="n">
-        <v>0.244608919706497</v>
+        <v>0.277524110368661</v>
       </c>
       <c r="K40" t="n">
-        <v>0.148130569769509</v>
+        <v>0.0655851365723738</v>
       </c>
       <c r="L40" t="n">
-        <v>1.65130614219002</v>
+        <v>4.23150922408174</v>
       </c>
       <c r="M40" t="n">
-        <v>0.138252930216082</v>
+        <v>0.0222248249138386</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3013,40 +3016,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>0.285468067850025</v>
+        <v>0.37413683071306</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0643431004558962</v>
+        <v>0.108182570245067</v>
       </c>
       <c r="D41" t="n">
-        <v>4.43665390426279</v>
+        <v>3.4583836367127</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00424617626733523</v>
+        <v>0.00900215699649463</v>
       </c>
       <c r="F41" t="n">
-        <v>0.217567136720716</v>
+        <v>0.3128792861693</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0828116615463072</v>
+        <v>0.140197032967694</v>
       </c>
       <c r="H41" t="n">
-        <v>2.62725240211556</v>
+        <v>2.23171118208612</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0393384260368198</v>
+        <v>0.0570161636679279</v>
       </c>
       <c r="J41" t="n">
-        <v>0.174457590066084</v>
+        <v>0.244811137233498</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0896111101513079</v>
+        <v>0.148843965992305</v>
       </c>
       <c r="L41" t="n">
-        <v>1.94682991619581</v>
+        <v>1.64475016236906</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0998804803360109</v>
+        <v>0.139644286942369</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3066,40 +3069,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.018394429902849</v>
+        <v>0.286502779536627</v>
       </c>
       <c r="C42" t="n">
-        <v>0.213662568678026</v>
+        <v>0.0633995972899075</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0860910266906325</v>
+        <v>4.51899999027651</v>
       </c>
       <c r="E42" t="n">
-        <v>0.933572758424282</v>
+        <v>0.00387921243632978</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0687490852543143</v>
+        <v>0.218521834511155</v>
       </c>
       <c r="G42" t="n">
-        <v>0.265742032935503</v>
+        <v>0.0818886636686691</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.258706101157132</v>
+        <v>2.66852363588836</v>
       </c>
       <c r="I42" t="n">
-        <v>0.802601230107758</v>
+        <v>0.0372067746534547</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.168013158148343</v>
+        <v>0.174669326683059</v>
       </c>
       <c r="K42" t="n">
-        <v>0.289938737515967</v>
+        <v>0.0893552570782898</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.579478132476487</v>
+        <v>1.95477392594842</v>
       </c>
       <c r="M42" t="n">
-        <v>0.57874629635448</v>
+        <v>0.0987642570873216</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3119,40 +3122,40 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.000107944193943433</v>
+        <v>0.019225044729224</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000129230660975761</v>
+        <v>0.212904382585877</v>
       </c>
       <c r="D43" t="n">
-        <v>0.835283152840012</v>
+        <v>0.0902989618894737</v>
       </c>
       <c r="E43" t="n">
-        <v>0.431031957774854</v>
+        <v>0.930336257151883</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000252491934683136</v>
+        <v>-0.0680014704576105</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00014523993473751</v>
+        <v>0.265082723842451</v>
       </c>
       <c r="H43" t="n">
-        <v>1.73844704033682</v>
+        <v>-0.256529242916738</v>
       </c>
       <c r="I43" t="n">
-        <v>0.125675269597316</v>
+        <v>0.804223261147303</v>
       </c>
       <c r="J43" t="n">
-        <v>0.000036387126939806</v>
+        <v>-0.167853785611395</v>
       </c>
       <c r="K43" t="n">
-        <v>0.000185631734920141</v>
+        <v>0.289310262897514</v>
       </c>
       <c r="L43" t="n">
-        <v>0.196017814278683</v>
+        <v>-0.580186074044861</v>
       </c>
       <c r="M43" t="n">
-        <v>0.850147630045049</v>
+        <v>0.578296373404791</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -3172,40 +3175,40 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00994626982830835</v>
+        <v>0.000108045502971197</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00319674727774403</v>
+        <v>0.000129151258399091</v>
       </c>
       <c r="D44" t="n">
-        <v>3.11137195534816</v>
+        <v>0.836581108929846</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00957806299806176</v>
+        <v>0.430349172855013</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00479097060409072</v>
+        <v>0.000252585838404612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00427244455672337</v>
+        <v>0.000145225634435795</v>
       </c>
       <c r="H44" t="n">
-        <v>1.12136519046253</v>
+        <v>1.73926483011016</v>
       </c>
       <c r="I44" t="n">
-        <v>0.285364323343919</v>
+        <v>0.125526088545072</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.00547589071571231</v>
+        <v>0.0000364152738282939</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00496516291080352</v>
+        <v>0.000185521283495609</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.10286224522412</v>
+        <v>0.196286232728418</v>
       </c>
       <c r="M44" t="n">
-        <v>0.292929174224548</v>
+        <v>0.849945420153431</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -3225,40 +3228,40 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00685321405960737</v>
+        <v>0.00998623269647828</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00266583124006706</v>
+        <v>0.0032015025871516</v>
       </c>
       <c r="D45" t="n">
-        <v>2.57076065303931</v>
+        <v>3.11923305530204</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0773451661417573</v>
+        <v>0.00944342897497956</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0102042609042133</v>
+        <v>0.00482521682300843</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00558676141733453</v>
+        <v>0.00425623418990927</v>
       </c>
       <c r="H45" t="n">
-        <v>1.8265073701826</v>
+        <v>1.13368217248198</v>
       </c>
       <c r="I45" t="n">
-        <v>0.161272651474762</v>
+        <v>0.280375516948245</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0132186240954173</v>
+        <v>-0.00546847434116845</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00543022139754519</v>
+        <v>0.00494739259896908</v>
       </c>
       <c r="L45" t="n">
-        <v>2.43426982579255</v>
+        <v>-1.10532451827412</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0889646561623957</v>
+        <v>0.291906681242457</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -3278,33 +3281,41 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.00532326725834839</v>
+        <v>0.00684060487176307</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0109517084323029</v>
+        <v>0.00265501127602771</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.486067291806913</v>
+        <v>2.5764880674999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.641155803156642</v>
+        <v>0.0769523834597757</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0102371783650148</v>
+        <v>0.0101947069824278</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0135791661811305</v>
+        <v>0.00558564216454463</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.753888584060505</v>
+        <v>1.82516292345751</v>
       </c>
       <c r="I46" t="n">
-        <v>0.473984504503383</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
+        <v>0.161506006954018</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0132165545315926</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.00543643448074322</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.43110711228248</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0892354642070301</v>
+      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
@@ -3323,28 +3334,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0568431898476099</v>
+        <v>-0.00534678721291951</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0624382448998316</v>
+        <v>0.0109522820727152</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.910390577742893</v>
+        <v>-0.488189326883725</v>
       </c>
       <c r="E47" t="n">
-        <v>0.381827766791776</v>
+        <v>0.639725670733537</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0285899328267722</v>
+        <v>-0.0102507329327274</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0708649287930375</v>
+        <v>0.0135799444007456</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.403442624069654</v>
+        <v>-0.75484351262621</v>
       </c>
       <c r="I47" t="n">
-        <v>0.694475766974004</v>
+        <v>0.473448769712567</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3368,28 +3379,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0242953621076298</v>
+        <v>-0.0567671388076437</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00991847995465306</v>
+        <v>0.0624866252025632</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.44950458323325</v>
+        <v>-0.908468630264819</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0399035667162812</v>
+        <v>0.382806223139507</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0197066825261633</v>
+        <v>-0.0285523576214199</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0108425385396045</v>
+        <v>0.0709115157580934</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.81753400775849</v>
+        <v>-0.402647684458234</v>
       </c>
       <c r="I48" t="n">
-        <v>0.108898767692661</v>
+        <v>0.695045725203239</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3413,28 +3424,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00274125807534815</v>
+        <v>-0.0243012058387223</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00648190176247023</v>
+        <v>0.00992832480612092</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.422909537324346</v>
+        <v>-2.44766426494632</v>
       </c>
       <c r="E49" t="n">
-        <v>0.679641891734027</v>
+        <v>0.0400273322653001</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.00147137408181456</v>
+        <v>-0.0197120870720972</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00843753111523419</v>
+        <v>0.0108505336775924</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.174384433280246</v>
+        <v>-1.81669286118201</v>
       </c>
       <c r="I49" t="n">
-        <v>0.864368993292517</v>
+        <v>0.109047552202492</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3458,28 +3469,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00225845281165213</v>
+        <v>-0.00273507443452036</v>
       </c>
       <c r="C50" t="n">
-        <v>0.000846432085496495</v>
+        <v>0.00648546328544253</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.66820321482424</v>
+        <v>-0.421723832846235</v>
       </c>
       <c r="E50" t="n">
-        <v>0.202523717246754</v>
+        <v>0.680486475932665</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.0022842639233435</v>
+        <v>-0.00146799267716204</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00221710249057722</v>
+        <v>0.0084426087445792</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.03029243485663</v>
+        <v>-0.173879036868149</v>
       </c>
       <c r="I50" t="n">
-        <v>0.474415427809207</v>
+        <v>0.864758241060313</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3503,28 +3514,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0326056576371608</v>
+        <v>-0.00225850564222831</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0164803280770152</v>
+        <v>0.000845727312786678</v>
       </c>
       <c r="D51" t="n">
-        <v>1.97845925668406</v>
+        <v>-2.67048918496734</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0787460153104332</v>
+        <v>0.202344723205642</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0426262513902667</v>
+        <v>-0.00228388241651979</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0147993941053181</v>
+        <v>0.00221598185732692</v>
       </c>
       <c r="H51" t="n">
-        <v>2.88027003584891</v>
+        <v>-1.03064129743137</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0177775981672558</v>
+        <v>0.474302720624119</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3548,28 +3559,28 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0250839382325707</v>
+        <v>0.0326112285776047</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0268312493939382</v>
+        <v>0.0165042495219529</v>
       </c>
       <c r="D52" t="n">
-        <v>0.934877756316397</v>
+        <v>1.97592920139915</v>
       </c>
       <c r="E52" t="n">
-        <v>0.368957778055296</v>
+        <v>0.0790813610198823</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0456148212572353</v>
+        <v>0.0426408609423612</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0335981990652846</v>
+        <v>0.0148293609719495</v>
       </c>
       <c r="H52" t="n">
-        <v>1.3576567353685</v>
+        <v>2.87543482305263</v>
       </c>
       <c r="I52" t="n">
-        <v>0.201960835556856</v>
+        <v>0.0179337923152811</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -3593,28 +3604,28 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00000133903746621052</v>
+        <v>0.0251156376370092</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00000519118437448659</v>
+        <v>0.0268587488337379</v>
       </c>
       <c r="D53" t="n">
-        <v>0.257944501603828</v>
+        <v>0.935100804303322</v>
       </c>
       <c r="E53" t="n">
-        <v>0.801257638174069</v>
+        <v>0.368864082236029</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00000186804003678804</v>
+        <v>0.0456328554605172</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00000731664249780322</v>
+        <v>0.0336119487423821</v>
       </c>
       <c r="H53" t="n">
-        <v>0.255313832451005</v>
+        <v>1.35763789866125</v>
       </c>
       <c r="I53" t="n">
-        <v>0.803217941480796</v>
+        <v>0.201981733289191</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -3638,28 +3649,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0000105331575783335</v>
+        <v>0.00000132909297624902</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00000299005026189499</v>
+        <v>0.00000519002530143692</v>
       </c>
       <c r="D54" t="n">
-        <v>3.5227359595146</v>
+        <v>0.256086030232077</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00452581169799276</v>
+        <v>0.802657641343495</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0000114520815810193</v>
+        <v>0.0000018605376863374</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000390451317753454</v>
+        <v>0.00000731568414054502</v>
       </c>
       <c r="H54" t="n">
-        <v>2.93303699086261</v>
+        <v>0.254321762748875</v>
       </c>
       <c r="I54" t="n">
-        <v>0.013902853028001</v>
+        <v>0.803966315882889</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3683,21 +3694,29 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.401622663628656</v>
+        <v>0.0000105285950718662</v>
       </c>
       <c r="C55" t="n">
-        <v>0.196653561482102</v>
+        <v>0.0000029905102157631</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.04228522789915</v>
+        <v>3.5206684853874</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0799892326056376</v>
-      </c>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
+        <v>0.00454243538914678</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.00001144988743221</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.00000390588303184768</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.93144657401417</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0139422155946774</v>
+      </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -3720,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.158657340006297</v>
+        <v>-0.401615688778815</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0369649885799372</v>
+        <v>0.196612488176355</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.29209763349983</v>
+        <v>-2.04267639611264</v>
       </c>
       <c r="E56" t="n">
-        <v>0.00160669839631125</v>
+        <v>0.0799443728682376</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -3757,16 +3776,16 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.23792173663542</v>
+        <v>-0.158579529540111</v>
       </c>
       <c r="C57" t="n">
-        <v>0.157617168709791</v>
+        <v>0.0369951513164844</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.50949124757778</v>
+        <v>-4.28649495669047</v>
       </c>
       <c r="E57" t="n">
-        <v>0.157018856227827</v>
+        <v>0.00162172958876375</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -3794,16 +3813,16 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>0.210042567833021</v>
+        <v>-0.238148722785477</v>
       </c>
       <c r="C58" t="n">
-        <v>0.110771746438517</v>
+        <v>0.157528870627076</v>
       </c>
       <c r="D58" t="n">
-        <v>1.89617456243325</v>
+        <v>-1.51177826539019</v>
       </c>
       <c r="E58" t="n">
-        <v>0.085923081729571</v>
+        <v>0.15644366417756</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3831,16 +3850,16 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.516164147692089</v>
+        <v>0.210436199361456</v>
       </c>
       <c r="C59" t="n">
-        <v>0.137651827259441</v>
+        <v>0.111107389258412</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.74978057297592</v>
+        <v>1.89398923659366</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0142985683286971</v>
+        <v>0.0862689238259637</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3863,6 +3882,43 @@
       <c r="X59"/>
       <c r="Y59"/>
     </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.51597025529281</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.137485437978619</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3.75290840163777</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0142529106657183</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Analysis/Output/Reg1_Robct.xlsx
+++ b/Analysis/Output/Reg1_Robct.xlsx
@@ -677,76 +677,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>3.35983444725404</v>
+        <v>2.26905687563987</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6047512618505</v>
+        <v>13.9806762233714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246960373077562</v>
+        <v>0.162299508220261</v>
       </c>
       <c r="E2" t="n">
-        <v>0.809450435919208</v>
+        <v>0.874001136632898</v>
       </c>
       <c r="F2" t="n">
-        <v>1.01684429932689</v>
+        <v>0.908279443106285</v>
       </c>
       <c r="G2" t="n">
-        <v>19.0939897743203</v>
+        <v>19.063709601531</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0532546791605837</v>
+        <v>0.0476444229423921</v>
       </c>
       <c r="I2" t="n">
-        <v>0.958473431761487</v>
+        <v>0.962843323375258</v>
       </c>
       <c r="J2" t="n">
-        <v>12.3310310988741</v>
+        <v>12.3226027581144</v>
       </c>
       <c r="K2" t="n">
-        <v>0.114303192550255</v>
+        <v>0.11825579845961</v>
       </c>
       <c r="L2" t="n">
-        <v>107.880023503741</v>
+        <v>104.202947497101</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0000000000000102130791330334</v>
+        <v>0.00000000000000941526542881659</v>
       </c>
       <c r="N2" t="n">
-        <v>12.7394092563406</v>
+        <v>12.7293552391184</v>
       </c>
       <c r="O2" t="n">
-        <v>0.128642410932673</v>
+        <v>0.139949677310724</v>
       </c>
       <c r="P2" t="n">
-        <v>99.029621444268</v>
+        <v>90.9566601633239</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000000000000000193575819207981</v>
+        <v>0.000000000000000184088985050825</v>
       </c>
       <c r="R2" t="n">
-        <v>13.1440954538629</v>
+        <v>13.1404941351468</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0422963681539431</v>
+        <v>0.0428481340673947</v>
       </c>
       <c r="T2" t="n">
-        <v>310.761798885976</v>
+        <v>306.675994676417</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00000000000000000000026512074390106</v>
+        <v>0.000000000000000000000311670853029416</v>
       </c>
       <c r="V2" t="n">
-        <v>13.2530999422509</v>
+        <v>13.2379186030398</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0592348454239702</v>
+        <v>0.0500145778272502</v>
       </c>
       <c r="X2" t="n">
-        <v>223.738237981251</v>
+        <v>264.68120252386</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0000000000000000000025202731096119</v>
+        <v>0.00000000000000000000023114427462906</v>
       </c>
     </row>
     <row r="3">
@@ -754,76 +754,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0142856896150268</v>
+        <v>0.0128889859232891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00856489435301918</v>
+        <v>0.00857379830003125</v>
       </c>
       <c r="D3" t="n">
-        <v>1.66793529799827</v>
+        <v>1.50329940969595</v>
       </c>
       <c r="E3" t="n">
-        <v>0.126692626312565</v>
+        <v>0.164057839262048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0054400954546611</v>
+        <v>0.00539395049291869</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0087075895987974</v>
+        <v>0.00858317937625618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.624753313524609</v>
+        <v>0.628432688688772</v>
       </c>
       <c r="I3" t="n">
-        <v>0.546299052841299</v>
+        <v>0.543985339837457</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.000540519977234453</v>
+        <v>-0.000664064396359164</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0146991245014146</v>
+        <v>0.0144382793487664</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0367722565505473</v>
+        <v>-0.0459933195859589</v>
       </c>
       <c r="M3" t="n">
-        <v>0.971398915768659</v>
+        <v>0.964231974533589</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0179874218289795</v>
+        <v>-0.0182328285957956</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0176588194506012</v>
+        <v>0.0173832750983741</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.01860840014235</v>
+        <v>-1.04887188936571</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.332714006165508</v>
+        <v>0.319250562273233</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0343285713599336</v>
+        <v>-0.0333350041411082</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0328159417794597</v>
+        <v>0.0325089648764516</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.0460943522706</v>
+        <v>-1.02540958371932</v>
       </c>
       <c r="U3" t="n">
-        <v>0.32047633641717</v>
+        <v>0.329663135227932</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.00252717866149494</v>
+        <v>0.0133742292304072</v>
       </c>
       <c r="W3" t="n">
-        <v>0.029883639708915</v>
+        <v>0.0282384368946492</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.0845672978964816</v>
+        <v>0.47361790173809</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.934109642021077</v>
+        <v>0.644889042544786</v>
       </c>
     </row>
     <row r="4">
@@ -831,64 +831,64 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0000221834759887419</v>
+        <v>-0.0000180504418781533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000606376086243504</v>
+        <v>0.0000549844503882429</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.365836920221713</v>
+        <v>-0.328282664475136</v>
       </c>
       <c r="E4" t="n">
-        <v>0.729905834918437</v>
+        <v>0.756257161631922</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00000834072609453681</v>
+        <v>-0.0000187417543394503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000552521196076373</v>
+        <v>0.0000456087217324942</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.150957576899618</v>
+        <v>-0.410924788670357</v>
       </c>
       <c r="I4" t="n">
-        <v>0.886069770695522</v>
+        <v>0.698395402565728</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000275867893651463</v>
+        <v>0.0000196835302856932</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0000975314753620279</v>
+        <v>0.0000924399430462792</v>
       </c>
       <c r="L4" t="n">
-        <v>0.282850118515553</v>
+        <v>0.212933171928057</v>
       </c>
       <c r="M4" t="n">
-        <v>0.788932994568586</v>
+        <v>0.839911589460785</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000237560229757997</v>
+        <v>0.000244438570665414</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000129296003899236</v>
+        <v>0.000125949605819149</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83733620988885</v>
+        <v>1.94076487239192</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.126814137024941</v>
+        <v>0.110133009586973</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000848335993531416</v>
+        <v>0.000899592999088228</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000289306493852183</v>
+        <v>0.000323565347711969</v>
       </c>
       <c r="T4" t="n">
-        <v>2.9323088543075</v>
+        <v>2.78025136328575</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0342272793760233</v>
+        <v>0.0404923367005087</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -900,64 +900,64 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0509257992420833</v>
+        <v>0.0413074557434263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0123350308062618</v>
+        <v>0.014204965296862</v>
       </c>
       <c r="D5" t="n">
-        <v>4.12855063290406</v>
+        <v>2.90795893408845</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0017104501547182</v>
+        <v>0.0142412473558556</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0436518692542858</v>
+        <v>0.0458644206027329</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0111282807964882</v>
+        <v>0.0128933420003138</v>
       </c>
       <c r="H5" t="n">
-        <v>3.92260673976354</v>
+        <v>3.55721740737326</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00244210903528317</v>
+        <v>0.00449569347409228</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0392469767682065</v>
+        <v>0.0404630809556628</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0125178568650496</v>
+        <v>0.0141253637803315</v>
       </c>
       <c r="L5" t="n">
-        <v>3.13527924079286</v>
+        <v>2.86456912437219</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00963578259867737</v>
+        <v>0.0153819747027718</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0561002254971014</v>
+        <v>0.0531097532668659</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0176653160046635</v>
+        <v>0.0145501843053815</v>
       </c>
       <c r="P5" t="n">
-        <v>3.1757272545983</v>
+        <v>3.65010862764281</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00895352314533008</v>
+        <v>0.00381233874048861</v>
       </c>
       <c r="R5" t="n">
-        <v>0.117253674042835</v>
+        <v>0.068138544333655</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0746939417882846</v>
+        <v>0.0300572283407343</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5697882751346</v>
+        <v>2.2669603318451</v>
       </c>
       <c r="U5" t="n">
-        <v>0.145320480090593</v>
+        <v>0.0445289285868885</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -969,64 +969,64 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0693650642384848</v>
+        <v>0.0541065841279833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0164450104929469</v>
+        <v>0.0212399182968564</v>
       </c>
       <c r="D6" t="n">
-        <v>4.21800060682448</v>
+        <v>2.5474007654724</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00151955442765871</v>
+        <v>0.0274804824495503</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065128943260407</v>
+        <v>0.0629925777033497</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0170979495326766</v>
+        <v>0.0156060434819988</v>
       </c>
       <c r="H6" t="n">
-        <v>3.80916689079802</v>
+        <v>4.03642202945354</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00302145731103234</v>
+        <v>0.00204679779067037</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0524188328439921</v>
+        <v>0.0500487621295673</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0183406902111954</v>
+        <v>0.0167446773077663</v>
       </c>
       <c r="L6" t="n">
-        <v>2.85806216889237</v>
+        <v>2.98893560082846</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0158931565047572</v>
+        <v>0.0125765965184197</v>
       </c>
       <c r="N6" t="n">
-        <v>0.063798357270528</v>
+        <v>0.06193945929956</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0174314306492728</v>
+        <v>0.016132322696313</v>
       </c>
       <c r="P6" t="n">
-        <v>3.65996105277736</v>
+        <v>3.83946319854587</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00389359678423433</v>
+        <v>0.00285044578293978</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0753132781907116</v>
+        <v>0.0684303178172152</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0365136900712968</v>
+        <v>0.0303997613311807</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06260386292524</v>
+        <v>2.2510149692204</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0642122659421857</v>
+        <v>0.046327298741109</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1038,64 +1038,64 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0594993241687033</v>
+        <v>0.0506511670238527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0158897615984424</v>
+        <v>0.020947658114403</v>
       </c>
       <c r="D7" t="n">
-        <v>3.74450703996312</v>
+        <v>2.41798709656363</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00314912454161025</v>
+        <v>0.0338231238252272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0522174077982922</v>
+        <v>0.0525602710887657</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0163994982767119</v>
+        <v>0.0163928012933294</v>
       </c>
       <c r="H7" t="n">
-        <v>3.184085690746</v>
+        <v>3.20630197049688</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00853676904715688</v>
+        <v>0.00820099102571253</v>
       </c>
       <c r="J7" t="n">
-        <v>0.043420264579535</v>
+        <v>0.0436729581965472</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0162066635302081</v>
+        <v>0.0162244184586949</v>
       </c>
       <c r="L7" t="n">
-        <v>2.6791612288737</v>
+        <v>2.69180422754334</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02117346342467</v>
+        <v>0.0206950592357299</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0519056036203231</v>
+        <v>0.0527128437223098</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0198904775194247</v>
+        <v>0.0203992972144513</v>
       </c>
       <c r="P7" t="n">
-        <v>2.60957051280609</v>
+        <v>2.58405194885669</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0239792963044739</v>
+        <v>0.0250979389857913</v>
       </c>
       <c r="R7" t="n">
-        <v>0.065578076621635</v>
+        <v>0.067050822711331</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0306089986156149</v>
+        <v>0.0315570494449241</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14244436563112</v>
+        <v>2.12474942653791</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0550182010314465</v>
+        <v>0.0567399219284513</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -1107,64 +1107,64 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0242086828744125</v>
+        <v>0.0179685526326102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0240408919538904</v>
+        <v>0.0307689031743929</v>
       </c>
       <c r="D8" t="n">
-        <v>1.00697939663986</v>
+        <v>0.583984178141401</v>
       </c>
       <c r="E8" t="n">
-        <v>0.338915647178028</v>
+        <v>0.572806389522689</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0270125077756054</v>
+        <v>0.0274811720725563</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02545958955011</v>
+        <v>0.0257666023684699</v>
       </c>
       <c r="H8" t="n">
-        <v>1.06099541480977</v>
+        <v>1.0665423279161</v>
       </c>
       <c r="I8" t="n">
-        <v>0.314930610622062</v>
+        <v>0.312543956703126</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0199906321401703</v>
+        <v>0.0203583462110795</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0261197805836375</v>
+        <v>0.0262164461812544</v>
       </c>
       <c r="L8" t="n">
-        <v>0.76534456620563</v>
+        <v>0.776548662252948</v>
       </c>
       <c r="M8" t="n">
-        <v>0.462651709624245</v>
+        <v>0.456320082231585</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0352977519218919</v>
+        <v>0.0362960932936318</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0331842101820533</v>
+        <v>0.0337762966893951</v>
       </c>
       <c r="P8" t="n">
-        <v>1.06369118711108</v>
+        <v>1.07460251274462</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.31374613450489</v>
+        <v>0.309075878713726</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0646870973010405</v>
+        <v>0.0653484126633771</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0507967830633851</v>
+        <v>0.0512379376824759</v>
       </c>
       <c r="T8" t="n">
-        <v>1.27344869891313</v>
+        <v>1.27539115778516</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2330900175902</v>
+        <v>0.232431036773774</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1176,64 +1176,64 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0592050379564312</v>
+        <v>0.050278657356762</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0348040478714779</v>
+        <v>0.0403039225540466</v>
       </c>
       <c r="D9" t="n">
-        <v>1.70109632577968</v>
+        <v>1.2474879408906</v>
       </c>
       <c r="E9" t="n">
-        <v>0.119712840364005</v>
+        <v>0.240515357266217</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0626990687924569</v>
+        <v>0.0631945123934554</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0363459924685276</v>
+        <v>0.0370536820371654</v>
       </c>
       <c r="H9" t="n">
-        <v>1.72506140386038</v>
+        <v>1.70548536391256</v>
       </c>
       <c r="I9" t="n">
-        <v>0.115177216175673</v>
+        <v>0.118867666440726</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0538985325851788</v>
+        <v>0.0544245910913634</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0356400045384258</v>
+        <v>0.0361403743013782</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51230431317895</v>
+        <v>1.50592217550132</v>
       </c>
       <c r="M9" t="n">
-        <v>0.161336014415108</v>
+        <v>0.16294484381639</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0863912677593326</v>
+        <v>0.0878946945023553</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0400272149789227</v>
+        <v>0.0412575243959881</v>
       </c>
       <c r="P9" t="n">
-        <v>2.15831323275486</v>
+        <v>2.13039186885634</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0562310881393097</v>
+        <v>0.058944756722223</v>
       </c>
       <c r="R9" t="n">
-        <v>0.110961317540072</v>
+        <v>0.112262973008776</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0620964057919739</v>
+        <v>0.0627098573919834</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78692013047902</v>
+        <v>1.79019659233235</v>
       </c>
       <c r="U9" t="n">
-        <v>0.104182930372414</v>
+        <v>0.103630124012398</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -1245,64 +1245,64 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.103180149084656</v>
+        <v>0.0947874558328258</v>
       </c>
       <c r="C10" t="n">
-        <v>0.036955153721929</v>
+        <v>0.0415260267446607</v>
       </c>
       <c r="D10" t="n">
-        <v>2.79203679846768</v>
+        <v>2.28260354441479</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0191119010312274</v>
+        <v>0.0456085670170572</v>
       </c>
       <c r="F10" t="n">
-        <v>0.106768421499798</v>
+        <v>0.106984925214545</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0379699552654466</v>
+        <v>0.0388121361050386</v>
       </c>
       <c r="H10" t="n">
-        <v>2.81191854858357</v>
+        <v>2.75648124403688</v>
       </c>
       <c r="I10" t="n">
-        <v>0.018471446191052</v>
+        <v>0.0203170405551231</v>
       </c>
       <c r="J10" t="n">
-        <v>0.094650100341927</v>
+        <v>0.0949707388787253</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0355481603932572</v>
+        <v>0.0361026116668675</v>
       </c>
       <c r="L10" t="n">
-        <v>2.6625878609426</v>
+        <v>2.63057807991999</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0238409633411858</v>
+        <v>0.0251914227804059</v>
       </c>
       <c r="N10" t="n">
-        <v>0.129999168140554</v>
+        <v>0.131279903826123</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0422679731377656</v>
+        <v>0.0436515784773576</v>
       </c>
       <c r="P10" t="n">
-        <v>3.07559503070666</v>
+        <v>3.00744917836635</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0117553727874307</v>
+        <v>0.0132062447885172</v>
       </c>
       <c r="R10" t="n">
-        <v>0.133752174325668</v>
+        <v>0.13552735509576</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0701296758653212</v>
+        <v>0.0706658016492095</v>
       </c>
       <c r="T10" t="n">
-        <v>1.90721221330795</v>
+        <v>1.91786340680784</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0856109733904777</v>
+        <v>0.084125300095905</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1314,64 +1314,64 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0567653846024118</v>
+        <v>0.05694304857723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0814773445486544</v>
+        <v>0.0850953164428739</v>
       </c>
       <c r="D11" t="n">
-        <v>0.696701456298863</v>
+        <v>0.669167833877872</v>
       </c>
       <c r="E11" t="n">
-        <v>0.505111517632561</v>
+        <v>0.521644858200456</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0546708811640236</v>
+        <v>0.0553683571678263</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0929582707514798</v>
+        <v>0.0939830175375101</v>
       </c>
       <c r="H11" t="n">
-        <v>0.58812282890012</v>
+        <v>0.589131511400215</v>
       </c>
       <c r="I11" t="n">
-        <v>0.572175599670817</v>
+        <v>0.571531472667707</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0332392675984773</v>
+        <v>0.0336762778995781</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0867398200493194</v>
+        <v>0.0877402011985785</v>
       </c>
       <c r="L11" t="n">
-        <v>0.383206554723976</v>
+        <v>0.38381810663233</v>
       </c>
       <c r="M11" t="n">
-        <v>0.71124326366105</v>
+        <v>0.710807844144714</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0632823577690674</v>
+        <v>0.0645884523782754</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0781700285971466</v>
+        <v>0.078688010194046</v>
       </c>
       <c r="P11" t="n">
-        <v>0.809547583706236</v>
+        <v>0.820816948083948</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.440958625187202</v>
+        <v>0.434864192323511</v>
       </c>
       <c r="R11" t="n">
-        <v>0.180240056453761</v>
+        <v>0.180249391587629</v>
       </c>
       <c r="S11" t="n">
-        <v>0.121167220175239</v>
+        <v>0.120528828750971</v>
       </c>
       <c r="T11" t="n">
-        <v>1.48753149732318</v>
+        <v>1.49548778873517</v>
       </c>
       <c r="U11" t="n">
-        <v>0.174087909434058</v>
+        <v>0.172048431672401</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
@@ -1383,52 +1383,52 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0596637048651615</v>
+        <v>0.0597300642699116</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0275701101205791</v>
+        <v>0.0298440364516199</v>
       </c>
       <c r="D12" t="n">
-        <v>2.16407205499796</v>
+        <v>2.00140702705345</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0506319973154181</v>
+        <v>0.0675511837648712</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0498826947305768</v>
+        <v>0.0493180540374284</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0306472500742366</v>
+        <v>0.0304101330379037</v>
       </c>
       <c r="H12" t="n">
-        <v>1.62764015073934</v>
+        <v>1.62176383694072</v>
       </c>
       <c r="I12" t="n">
-        <v>0.12851019412569</v>
+        <v>0.129696538236347</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0138111515822118</v>
+        <v>0.0132501369213852</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0269616449181227</v>
+        <v>0.02661624941545</v>
       </c>
       <c r="L12" t="n">
-        <v>0.512251816391528</v>
+        <v>0.497821338933422</v>
       </c>
       <c r="M12" t="n">
-        <v>0.617280451371083</v>
+        <v>0.627116361319372</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0350535177470368</v>
+        <v>-0.0350004627533012</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0219025695928845</v>
+        <v>0.0217645290251905</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.60042946551918</v>
+        <v>-1.60814243730206</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.138307214276392</v>
+        <v>0.136620196207788</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -1444,52 +1444,52 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05887086340302</v>
+        <v>0.0607438763698855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0291115793152701</v>
+        <v>0.0299444580791147</v>
       </c>
       <c r="D13" t="n">
-        <v>2.02224904274225</v>
+        <v>2.02855153395654</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0636835960883826</v>
+        <v>0.0630462560819856</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0654217648826407</v>
+        <v>0.0642173816919419</v>
       </c>
       <c r="G13" t="n">
-        <v>0.036154304787685</v>
+        <v>0.0365220784019529</v>
       </c>
       <c r="H13" t="n">
-        <v>1.80951522278821</v>
+        <v>1.7583167361173</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0930718257729065</v>
+        <v>0.10163962813946</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0838403560501049</v>
+        <v>0.0840281425877649</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0421081587391346</v>
+        <v>0.0426218362853497</v>
       </c>
       <c r="L13" t="n">
-        <v>1.99107153009246</v>
+        <v>1.97148105082107</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0673694497677908</v>
+        <v>0.0696997327239133</v>
       </c>
       <c r="N13" t="n">
-        <v>0.103320253464976</v>
+        <v>0.104419558798015</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0431660142395342</v>
+        <v>0.0440608686577047</v>
       </c>
       <c r="P13" t="n">
-        <v>2.39355556182781</v>
+        <v>2.36989333118278</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0321499939940355</v>
+        <v>0.0333743236243053</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1505,52 +1505,52 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0273160622802626</v>
+        <v>0.0291050635860334</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0236252144505912</v>
+        <v>0.0238792108760366</v>
       </c>
       <c r="D14" t="n">
-        <v>1.15622494506411</v>
+        <v>1.2188452850107</v>
       </c>
       <c r="E14" t="n">
-        <v>0.271213445520108</v>
+        <v>0.247585917593765</v>
       </c>
       <c r="F14" t="n">
-        <v>0.022870058745579</v>
+        <v>0.0225825654461435</v>
       </c>
       <c r="G14" t="n">
-        <v>0.026116785521421</v>
+        <v>0.026183562140562</v>
       </c>
       <c r="H14" t="n">
-        <v>0.875684288436682</v>
+        <v>0.86247109254703</v>
       </c>
       <c r="I14" t="n">
-        <v>0.399390249754346</v>
+        <v>0.406398309773233</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00675320849446954</v>
+        <v>0.00754308893701643</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0318726368580444</v>
+        <v>0.0323176327010921</v>
       </c>
       <c r="L14" t="n">
-        <v>0.211881072926198</v>
+        <v>0.233404748633137</v>
       </c>
       <c r="M14" t="n">
-        <v>0.836011296982588</v>
+        <v>0.819680950952152</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.00495148101687482</v>
+        <v>-0.00312813308620125</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0329714371768983</v>
+        <v>0.0335987563550589</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.150174861663116</v>
+        <v>-0.0931026450248433</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.883258982957524</v>
+        <v>0.927447103530415</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -1566,52 +1566,52 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0315370426826771</v>
+        <v>-0.0331027707851456</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219530605598792</v>
+        <v>0.0220457115532362</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.43656701518481</v>
+        <v>-1.50155147885378</v>
       </c>
       <c r="E15" t="n">
-        <v>0.182905798927388</v>
+        <v>0.165793732009601</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0312957957468869</v>
+        <v>-0.0324023647399838</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0215199861936362</v>
+        <v>0.0222922932737988</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.45426653461988</v>
+        <v>-1.45352316794019</v>
       </c>
       <c r="I15" t="n">
-        <v>0.178088229225614</v>
+        <v>0.178357048212857</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0357776304405096</v>
+        <v>-0.0369716015310981</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0261687950033382</v>
+        <v>0.026144834158993</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.36718677478064</v>
+        <v>-1.41410732637526</v>
       </c>
       <c r="M15" t="n">
-        <v>0.20320658617479</v>
+        <v>0.189465814397964</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.101409378683361</v>
+        <v>-0.101117172456101</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0530141669655095</v>
+        <v>0.0528703700089217</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.91287319009157</v>
+        <v>-1.91254898422383</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0822591758879942</v>
+        <v>0.0823058029298266</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1627,52 +1627,52 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00707993792102429</v>
+        <v>-0.00979855819743312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0115640345051529</v>
+        <v>0.0103636400212669</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.612237702842335</v>
+        <v>-0.945474580101757</v>
       </c>
       <c r="E16" t="n">
-        <v>0.554243094305451</v>
+        <v>0.366980695435756</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.00815104112655815</v>
+        <v>-0.00767334620245398</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0116185915838077</v>
+        <v>0.0117079475662177</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.701551566535647</v>
+        <v>-0.65539635867475</v>
       </c>
       <c r="I16" t="n">
-        <v>0.499115499581257</v>
+        <v>0.527111673485761</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00328027903740587</v>
+        <v>0.00359881826301576</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00742002209555793</v>
+        <v>0.00753246954336763</v>
       </c>
       <c r="L16" t="n">
-        <v>0.442084807182669</v>
+        <v>0.477774021162095</v>
       </c>
       <c r="M16" t="n">
-        <v>0.667878668644982</v>
+        <v>0.643101510400907</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0842476228452846</v>
+        <v>0.0829081145788861</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0195549688422469</v>
+        <v>0.0191969140390902</v>
       </c>
       <c r="P16" t="n">
-        <v>4.30824633498134</v>
+        <v>4.31882512001994</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.00120233104849682</v>
+        <v>0.00118153719226194</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -1688,52 +1688,52 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000516673409746264</v>
+        <v>0.000514358044482041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000676347078554725</v>
+        <v>0.0000684237540544199</v>
       </c>
       <c r="D17" t="n">
-        <v>7.6391755968006</v>
+        <v>7.51724385179091</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0000348586225308931</v>
+        <v>0.0000402407800563371</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00056272573316025</v>
+        <v>0.000562129754661057</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000726854189522491</v>
+        <v>0.0000764703464790782</v>
       </c>
       <c r="H17" t="n">
-        <v>7.7419342320904</v>
+        <v>7.35095080044985</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000378546847487444</v>
+        <v>0.0000519995674363969</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000654236799543195</v>
+        <v>0.000653482480912732</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0000618861476413388</v>
+        <v>0.0000653294434240414</v>
       </c>
       <c r="L17" t="n">
-        <v>10.5716194088348</v>
+        <v>10.0028784367731</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000218809391184032</v>
+        <v>0.00000314498757647911</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00072083180661733</v>
+        <v>0.000716668755919734</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0000563229334543338</v>
+        <v>0.000059603516171676</v>
       </c>
       <c r="P17" t="n">
-        <v>12.7981936026428</v>
+        <v>12.023934189646</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000000636766610459488</v>
+        <v>0.000000949650345444785</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -1749,52 +1749,52 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0223090265767576</v>
+        <v>-0.0214987096754409</v>
       </c>
       <c r="C18" t="n">
-        <v>0.006920127511732</v>
+        <v>0.00669065987562288</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.2237883679074</v>
+        <v>-3.21324205311504</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0133651649154708</v>
+        <v>0.0128009619657628</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0232154588940043</v>
+        <v>-0.0232916472438052</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00598292765312808</v>
+        <v>0.00660619054933354</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.88028407494891</v>
+        <v>-3.52573045991763</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00570330015385751</v>
+        <v>0.00818884655517425</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0204900982443043</v>
+        <v>-0.0204029913899017</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00735418009091824</v>
+        <v>0.00799785838688562</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.78618391050931</v>
+        <v>-2.55105684583729</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0257952866981249</v>
+        <v>0.0341029423987514</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0241936541989447</v>
+        <v>-0.0234760786720834</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00716431688694112</v>
+        <v>0.00786195518477159</v>
       </c>
       <c r="P18" t="n">
-        <v>-3.37696595233582</v>
+        <v>-2.98603567692118</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0113212603627214</v>
+        <v>0.0179618163544458</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -1810,52 +1810,52 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.220924170695823</v>
+        <v>0.208079469119582</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0931915780099363</v>
+        <v>0.0905232597644486</v>
       </c>
       <c r="D19" t="n">
-        <v>2.37064523869601</v>
+        <v>2.29862987326161</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0485674451982342</v>
+        <v>0.0530361504513746</v>
       </c>
       <c r="F19" t="n">
-        <v>0.240287391153845</v>
+        <v>0.241447477818105</v>
       </c>
       <c r="G19" t="n">
-        <v>0.088128867820062</v>
+        <v>0.0959857300841666</v>
       </c>
       <c r="H19" t="n">
-        <v>2.72654576301211</v>
+        <v>2.5154518031627</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0293899348698652</v>
+        <v>0.0383545984891392</v>
       </c>
       <c r="J19" t="n">
-        <v>0.239055306348356</v>
+        <v>0.238281506632548</v>
       </c>
       <c r="K19" t="n">
-        <v>0.102637905694627</v>
+        <v>0.110944472682963</v>
       </c>
       <c r="L19" t="n">
-        <v>2.32911325236512</v>
+        <v>2.14775464581697</v>
       </c>
       <c r="M19" t="n">
-        <v>0.052072632874241</v>
+        <v>0.0660318691689684</v>
       </c>
       <c r="N19" t="n">
-        <v>0.267764710783338</v>
+        <v>0.258226480397123</v>
       </c>
       <c r="O19" t="n">
-        <v>0.107635055753796</v>
+        <v>0.118895843155316</v>
       </c>
       <c r="P19" t="n">
-        <v>2.48770912885316</v>
+        <v>2.17187139217135</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0415611785788595</v>
+        <v>0.0648823578660344</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -1871,52 +1871,52 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00525023780534521</v>
+        <v>-0.00486892212971843</v>
       </c>
       <c r="C20" t="n">
-        <v>0.094704919694736</v>
+        <v>0.0972388836248737</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0554378571067732</v>
+        <v>-0.0500717608863309</v>
       </c>
       <c r="E20" t="n">
-        <v>0.957602246441572</v>
+        <v>0.961702116053597</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0165785976849553</v>
+        <v>-0.0162019715230692</v>
       </c>
       <c r="G20" t="n">
-        <v>0.109849903353712</v>
+        <v>0.109040843384693</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.150920457631836</v>
+        <v>-0.148586263826932</v>
       </c>
       <c r="I20" t="n">
-        <v>0.885018885931024</v>
+        <v>0.886782642836658</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0367187597328825</v>
+        <v>0.0371763730868378</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0896663402821452</v>
+        <v>0.0887855216729334</v>
       </c>
       <c r="L20" t="n">
-        <v>0.40950438723542</v>
+        <v>0.418721120136991</v>
       </c>
       <c r="M20" t="n">
-        <v>0.696489861259316</v>
+        <v>0.690102342912851</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0161876492318313</v>
+        <v>-0.0151691882834809</v>
       </c>
       <c r="O20" t="n">
-        <v>0.115327374339863</v>
+        <v>0.114818033620702</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.140362592354937</v>
+        <v>-0.132115032849212</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.893010959287395</v>
+        <v>0.89925370557568</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -1932,52 +1932,52 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0996220967803951</v>
+        <v>0.0983469907861091</v>
       </c>
       <c r="C21" t="n">
-        <v>0.012973036281607</v>
+        <v>0.0122847986602935</v>
       </c>
       <c r="D21" t="n">
-        <v>7.67916581884827</v>
+        <v>8.0055842595111</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00000987533836000405</v>
+        <v>0.00000671660029053509</v>
       </c>
       <c r="F21" t="n">
-        <v>0.103006072501952</v>
+        <v>0.103540449718496</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0159458412551885</v>
+        <v>0.0161377667155777</v>
       </c>
       <c r="H21" t="n">
-        <v>6.4597452623226</v>
+        <v>6.41603336715416</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0000486627585031061</v>
+        <v>0.0000514484625652469</v>
       </c>
       <c r="J21" t="n">
-        <v>0.131703846831324</v>
+        <v>0.132141338164898</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0173932128697982</v>
+        <v>0.0175397609776005</v>
       </c>
       <c r="L21" t="n">
-        <v>7.5721402260313</v>
+        <v>7.53381635779714</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0000111224236095616</v>
+        <v>0.0000116001306435372</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1535453714336</v>
+        <v>0.153861798975465</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0270873041202144</v>
+        <v>0.0272816575006133</v>
       </c>
       <c r="P21" t="n">
-        <v>5.66853647569209</v>
+        <v>5.63975260564742</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.000152515105619554</v>
+        <v>0.000158682457450923</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -1993,52 +1993,52 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0551076409069184</v>
+        <v>0.0547656899866199</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00476746075134859</v>
+        <v>0.00559520856051673</v>
       </c>
       <c r="D22" t="n">
-        <v>11.5591178996764</v>
+        <v>9.78796221700843</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00000012656507017732</v>
+        <v>0.000000716286856000053</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0561473524569197</v>
+        <v>0.0562707325433482</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00680180447996116</v>
+        <v>0.00698579546959727</v>
       </c>
       <c r="H22" t="n">
-        <v>8.25477307122482</v>
+        <v>8.05502147725951</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00000396451211261911</v>
+        <v>0.00000503543440374634</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0688992957556441</v>
+        <v>0.069012278339034</v>
       </c>
       <c r="K22" t="n">
-        <v>0.011635271963603</v>
+        <v>0.011728252418835</v>
       </c>
       <c r="L22" t="n">
-        <v>5.92158876656875</v>
+        <v>5.88427635034559</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0000879805942078022</v>
+        <v>0.0000929467849507454</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0724727440565467</v>
+        <v>0.073083226826274</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0132959122469909</v>
+        <v>0.0131474197236832</v>
       </c>
       <c r="P22" t="n">
-        <v>5.4507537888533</v>
+        <v>5.55875056568133</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.000184644119571299</v>
+        <v>0.000156244308648424</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -2054,52 +2054,52 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0916745935871681</v>
+        <v>-0.0945050921673572</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0119758349537755</v>
+        <v>0.0116044708440446</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.65496468020939</v>
+        <v>-8.14385192030163</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00000726653312459476</v>
+        <v>0.00000394579126157134</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0984416600468242</v>
+        <v>-0.0981860050735046</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0117836415552558</v>
+        <v>0.0117607068323961</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.35409491923292</v>
+        <v>-8.34864829748507</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00000306472727111144</v>
+        <v>0.00000308336908098616</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.110245803829459</v>
+        <v>-0.110068072634953</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0181976479715363</v>
+        <v>0.0181238947658664</v>
       </c>
       <c r="L23" t="n">
-        <v>-6.058244669965</v>
+        <v>-6.07309157644467</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0000661988032117761</v>
+        <v>0.0000647365845247637</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0964067679647062</v>
+        <v>-0.0962897422782507</v>
       </c>
       <c r="O23" t="n">
-        <v>0.017875331113736</v>
+        <v>0.0178649827280371</v>
       </c>
       <c r="P23" t="n">
-        <v>-5.39328571601252</v>
+        <v>-5.38985924274837</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.000184117020220581</v>
+        <v>0.000185060050557376</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
@@ -2115,40 +2115,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0201056474143273</v>
+        <v>-0.0198526565289417</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0207588386202832</v>
+        <v>0.0204936548176652</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.9685343087875</v>
+        <v>-0.968722109627272</v>
       </c>
       <c r="E24" t="n">
-        <v>0.355392350141812</v>
+        <v>0.355332508559105</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0197424201507302</v>
+        <v>-0.0209170072303295</v>
       </c>
       <c r="G24" t="n">
-        <v>0.019929760494368</v>
+        <v>0.0211121703230809</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.990599970145617</v>
+        <v>-0.99075589625487</v>
       </c>
       <c r="I24" t="n">
-        <v>0.345062112675951</v>
+        <v>0.345015000176141</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00482142645703411</v>
+        <v>0.00343227916625677</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0261239752434159</v>
+        <v>0.0259994372510708</v>
       </c>
       <c r="L24" t="n">
-        <v>0.184559448250482</v>
+        <v>0.132013594490989</v>
       </c>
       <c r="M24" t="n">
-        <v>0.857222301231442</v>
+        <v>0.897565396054949</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2168,40 +2168,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0260224632339729</v>
+        <v>0.0113783374107928</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0606221364009852</v>
+        <v>0.0505703300894695</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4292567827344</v>
+        <v>0.225000259849246</v>
       </c>
       <c r="E25" t="n">
-        <v>0.681817814991839</v>
+        <v>0.829003766507577</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0152118192053011</v>
+        <v>0.0183948120871942</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0620398920191264</v>
+        <v>0.0621666340732908</v>
       </c>
       <c r="H25" t="n">
-        <v>0.245194159922319</v>
+        <v>0.29589525573329</v>
       </c>
       <c r="I25" t="n">
-        <v>0.814004139278608</v>
+        <v>0.776714353217256</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0379013988853825</v>
+        <v>0.0391810092256165</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0849704180943999</v>
+        <v>0.0866783736923347</v>
       </c>
       <c r="L25" t="n">
-        <v>0.446054047224706</v>
+        <v>0.452027507630562</v>
       </c>
       <c r="M25" t="n">
-        <v>0.670374085611381</v>
+        <v>0.666303741395611</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2221,40 +2221,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0368515025676918</v>
+        <v>-0.0255447242747407</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0119342751502116</v>
+        <v>0.00867790693805953</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.08787103563961</v>
+        <v>-2.94365040522695</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0102504689111017</v>
+        <v>0.013396091278714</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0338785164726405</v>
+        <v>-0.0285323545233654</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0117316928334895</v>
+        <v>0.0114467839065333</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.88777731854097</v>
+        <v>-2.49260881976468</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0146405572817911</v>
+        <v>0.0299668161287795</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0161067436870708</v>
+        <v>-0.0115208512877817</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0136802008178546</v>
+        <v>0.0121545362539279</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.17737626088421</v>
+        <v>-0.947864323828775</v>
       </c>
       <c r="M26" t="n">
-        <v>0.263772523743825</v>
+        <v>0.363694826208777</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2274,40 +2274,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0603689244421024</v>
+        <v>0.0636831632542999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0232594176053319</v>
+        <v>0.0233686881783273</v>
       </c>
       <c r="D27" t="n">
-        <v>2.59546156599655</v>
+        <v>2.72514925820103</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0329814764125426</v>
+        <v>0.0271333577318435</v>
       </c>
       <c r="F27" t="n">
-        <v>0.080468546512045</v>
+        <v>0.085626476406022</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0242071546847048</v>
+        <v>0.0244359766644772</v>
       </c>
       <c r="H27" t="n">
-        <v>3.32416376728854</v>
+        <v>3.50411516518176</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0110370118429152</v>
+        <v>0.00847681994678024</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0786788905664705</v>
+        <v>0.0832337465832183</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0283591478437131</v>
+        <v>0.0296412095958968</v>
       </c>
       <c r="L27" t="n">
-        <v>2.77437428656421</v>
+        <v>2.80804149756224</v>
       </c>
       <c r="M27" t="n">
-        <v>0.024648196185484</v>
+        <v>0.0233418960062242</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2327,40 +2327,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0101161249349515</v>
+        <v>0.0184588690044176</v>
       </c>
       <c r="C28" t="n">
-        <v>0.027370709631121</v>
+        <v>0.0249365994753395</v>
       </c>
       <c r="D28" t="n">
-        <v>0.369596735754681</v>
+        <v>0.740232004073855</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7181538172074</v>
+        <v>0.473988409978656</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0131982548099979</v>
+        <v>0.0260840894541494</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0308350479689291</v>
+        <v>0.0225059387570055</v>
       </c>
       <c r="H28" t="n">
-        <v>0.428027704814894</v>
+        <v>1.15898695609976</v>
       </c>
       <c r="I28" t="n">
-        <v>0.676260229945199</v>
+        <v>0.269988558893614</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.015507759582939</v>
+        <v>-0.00560102708511706</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0390914042402071</v>
+        <v>0.0363723419351348</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.396705103957065</v>
+        <v>-0.153991378809364</v>
       </c>
       <c r="M28" t="n">
-        <v>0.698459446693834</v>
+        <v>0.880228299390857</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2380,40 +2380,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0128228471084707</v>
+        <v>0.0059684570025774</v>
       </c>
       <c r="C29" t="n">
-        <v>0.10846287907202</v>
+        <v>0.117751265261151</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118223370227488</v>
+        <v>0.0506869882828046</v>
       </c>
       <c r="E29" t="n">
-        <v>0.919143966391426</v>
+        <v>0.965260980123263</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0312877197416509</v>
+        <v>0.0315053728614907</v>
       </c>
       <c r="G29" t="n">
-        <v>0.130369051302736</v>
+        <v>0.130104523870603</v>
       </c>
       <c r="H29" t="n">
-        <v>0.239993460326686</v>
+        <v>0.242154322726124</v>
       </c>
       <c r="I29" t="n">
-        <v>0.838068325434763</v>
+        <v>0.836643109531353</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0383965978350771</v>
+        <v>0.0386793218320572</v>
       </c>
       <c r="K29" t="n">
-        <v>0.126848239312697</v>
+        <v>0.126756810897935</v>
       </c>
       <c r="L29" t="n">
-        <v>0.302697128814098</v>
+        <v>0.305145905439367</v>
       </c>
       <c r="M29" t="n">
-        <v>0.797682814561256</v>
+        <v>0.796108988958699</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2433,40 +2433,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00385422492081636</v>
+        <v>0.00285009575184058</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0125202820735567</v>
+        <v>0.0132974658655477</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307838505408487</v>
+        <v>0.214333752059096</v>
       </c>
       <c r="E30" t="n">
-        <v>0.763445258056882</v>
+        <v>0.83386207984758</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00367213825038611</v>
+        <v>-0.00300963977999516</v>
       </c>
       <c r="G30" t="n">
-        <v>0.013666963612296</v>
+        <v>0.014319418565413</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.268687204748415</v>
+        <v>-0.210178909586777</v>
       </c>
       <c r="I30" t="n">
-        <v>0.792693248206592</v>
+        <v>0.837025641272622</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0312180124110249</v>
+        <v>-0.0306281134563905</v>
       </c>
       <c r="K30" t="n">
-        <v>0.027685297746778</v>
+        <v>0.0278643214639568</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.12760255268188</v>
+        <v>-1.09918748590411</v>
       </c>
       <c r="M30" t="n">
-        <v>0.281242873927476</v>
+        <v>0.292989777086274</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2486,40 +2486,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0349777583250185</v>
+        <v>-0.0306380502124752</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0759544373144009</v>
+        <v>0.0645982777774371</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.460509741915852</v>
+        <v>-0.474285867465903</v>
       </c>
       <c r="E31" t="n">
-        <v>0.665996473626413</v>
+        <v>0.659010505362953</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0313976537727454</v>
+        <v>-0.0214275722215342</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0767209282077815</v>
+        <v>0.0633777853488721</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.409244967523227</v>
+        <v>-0.338092789193927</v>
       </c>
       <c r="I31" t="n">
-        <v>0.700695930764744</v>
+        <v>0.751664405461316</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.00700817312928304</v>
+        <v>-0.0115597128944079</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0815729950680093</v>
+        <v>0.0683016867352213</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0859129068810108</v>
+        <v>-0.169244911025702</v>
       </c>
       <c r="M31" t="n">
-        <v>0.935144405994863</v>
+        <v>0.873509872172087</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2539,40 +2539,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0918440234219397</v>
+        <v>-0.116937925591921</v>
       </c>
       <c r="C32" t="n">
-        <v>0.113696633813259</v>
+        <v>0.11768300614628</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.807798967670311</v>
+        <v>-0.993668749815646</v>
       </c>
       <c r="E32" t="n">
-        <v>0.510076023639215</v>
+        <v>0.432502391345084</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.138141113614298</v>
+        <v>-0.140124392783277</v>
       </c>
       <c r="G32" t="n">
-        <v>0.111504239860396</v>
+        <v>0.112372008112317</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.2388866449137</v>
+        <v>-1.24696884159284</v>
       </c>
       <c r="I32" t="n">
-        <v>0.350163093789373</v>
+        <v>0.347781383579935</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0381436065751804</v>
+        <v>0.0361753695475019</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0561211068273809</v>
+        <v>0.0557841662493144</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6796659711738</v>
+        <v>0.64848812807965</v>
       </c>
       <c r="M32" t="n">
-        <v>0.573082400366221</v>
+        <v>0.589120306717505</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2592,40 +2592,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0492267059043972</v>
+        <v>0.0658056999684743</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0541144421689633</v>
+        <v>0.0546253294593153</v>
       </c>
       <c r="D33" t="n">
-        <v>0.909677785288722</v>
+        <v>1.20467374054899</v>
       </c>
       <c r="E33" t="n">
-        <v>0.382789844686061</v>
+        <v>0.254266549596046</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0664109032053575</v>
+        <v>0.0662650500974706</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0589609944407195</v>
+        <v>0.0585258413773208</v>
       </c>
       <c r="H33" t="n">
-        <v>1.12635317357356</v>
+        <v>1.1322357532676</v>
       </c>
       <c r="I33" t="n">
-        <v>0.284480524167301</v>
+        <v>0.282112528887327</v>
       </c>
       <c r="J33" t="n">
-        <v>0.101793700003426</v>
+        <v>0.102439196779529</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0675185481189784</v>
+        <v>0.0670434581686691</v>
       </c>
       <c r="L33" t="n">
-        <v>1.50764053492455</v>
+        <v>1.52795216084783</v>
       </c>
       <c r="M33" t="n">
-        <v>0.162999393991022</v>
+        <v>0.15789698793276</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2645,40 +2645,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0299749680954638</v>
+        <v>0.0163913029330581</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0278517835684175</v>
+        <v>0.0272524238045497</v>
       </c>
       <c r="D34" t="n">
-        <v>1.07623154624302</v>
+        <v>0.601462205733115</v>
       </c>
       <c r="E34" t="n">
-        <v>0.313655549012225</v>
+        <v>0.564038514161838</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0430164223694102</v>
+        <v>0.0427866562034499</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0339192980643689</v>
+        <v>0.0338523726245755</v>
       </c>
       <c r="H34" t="n">
-        <v>1.26819907321719</v>
+        <v>1.26391897779089</v>
       </c>
       <c r="I34" t="n">
-        <v>0.240386308748113</v>
+        <v>0.241817400661921</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0374092013392068</v>
+        <v>0.0373758004774879</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0447644558709469</v>
+        <v>0.0449278075587813</v>
       </c>
       <c r="L34" t="n">
-        <v>0.835689848371109</v>
+        <v>0.831907954301738</v>
       </c>
       <c r="M34" t="n">
-        <v>0.429975748676796</v>
+        <v>0.431932558568357</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2698,40 +2698,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>0.020308334925192</v>
+        <v>0.0248919443496702</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0566462871253392</v>
+        <v>0.0561135308780567</v>
       </c>
       <c r="D35" t="n">
-        <v>0.358511315671167</v>
+        <v>0.443599680151374</v>
       </c>
       <c r="E35" t="n">
-        <v>0.725953232965202</v>
+        <v>0.664893704186157</v>
       </c>
       <c r="F35" t="n">
-        <v>0.029199494605144</v>
+        <v>0.0296058127566789</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0572942576537506</v>
+        <v>0.0574454559739237</v>
       </c>
       <c r="H35" t="n">
-        <v>0.509640857581345</v>
+        <v>0.515372578296148</v>
       </c>
       <c r="I35" t="n">
-        <v>0.619181513811361</v>
+        <v>0.615262470859607</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0257080169242747</v>
+        <v>0.026947145389608</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0516545726702511</v>
+        <v>0.0509045944649179</v>
       </c>
       <c r="L35" t="n">
-        <v>0.497691019309901</v>
+        <v>0.529365682466624</v>
       </c>
       <c r="M35" t="n">
-        <v>0.629136173434534</v>
+        <v>0.607690104445988</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2751,40 +2751,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0645910346106164</v>
+        <v>0.0617828827531777</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0684462955964897</v>
+        <v>0.0614375031714531</v>
       </c>
       <c r="D36" t="n">
-        <v>0.943674658324811</v>
+        <v>1.00562164091794</v>
       </c>
       <c r="E36" t="n">
-        <v>0.367449435977946</v>
+        <v>0.338710544829456</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0598173619679952</v>
+        <v>0.0602016205596363</v>
       </c>
       <c r="G36" t="n">
-        <v>0.078505383382321</v>
+        <v>0.078413105931826</v>
       </c>
       <c r="H36" t="n">
-        <v>0.761952357797997</v>
+        <v>0.767749470502761</v>
       </c>
       <c r="I36" t="n">
-        <v>0.464051715832813</v>
+        <v>0.460711610262963</v>
       </c>
       <c r="J36" t="n">
-        <v>0.136084453108704</v>
+        <v>0.13785248989387</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0816924337538548</v>
+        <v>0.081764198817463</v>
       </c>
       <c r="L36" t="n">
-        <v>1.66581465204888</v>
+        <v>1.68597615934112</v>
       </c>
       <c r="M36" t="n">
-        <v>0.13096201608395</v>
+        <v>0.126743174138942</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2804,40 +2804,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0574789180818106</v>
+        <v>0.0474412781893227</v>
       </c>
       <c r="C37" t="n">
-        <v>0.106099914489614</v>
+        <v>0.104648332369837</v>
       </c>
       <c r="D37" t="n">
-        <v>0.541743302605933</v>
+        <v>0.453340030509617</v>
       </c>
       <c r="E37" t="n">
-        <v>0.59856016701522</v>
+        <v>0.659090072981181</v>
       </c>
       <c r="F37" t="n">
-        <v>0.137341122476352</v>
+        <v>0.137529512151884</v>
       </c>
       <c r="G37" t="n">
-        <v>0.10234363485073</v>
+        <v>0.101594781842304</v>
       </c>
       <c r="H37" t="n">
-        <v>1.34196056918113</v>
+        <v>1.35370645674853</v>
       </c>
       <c r="I37" t="n">
-        <v>0.205822175829427</v>
+        <v>0.202196943261932</v>
       </c>
       <c r="J37" t="n">
-        <v>0.235164899205303</v>
+        <v>0.236080658029602</v>
       </c>
       <c r="K37" t="n">
-        <v>0.113652187339861</v>
+        <v>0.113160135287095</v>
       </c>
       <c r="L37" t="n">
-        <v>2.06916298497692</v>
+        <v>2.08625287899002</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0664669605650469</v>
+        <v>0.064675699781381</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2857,40 +2857,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.249446396333124</v>
+        <v>0.259420168979607</v>
       </c>
       <c r="C38" t="n">
-        <v>0.140401545782103</v>
+        <v>0.138776422314294</v>
       </c>
       <c r="D38" t="n">
-        <v>1.77666417377095</v>
+        <v>1.86933893130697</v>
       </c>
       <c r="E38" t="n">
-        <v>0.16028738564829</v>
+        <v>0.145192812882348</v>
       </c>
       <c r="F38" t="n">
-        <v>0.499575435773324</v>
+        <v>0.500419003199513</v>
       </c>
       <c r="G38" t="n">
-        <v>0.136497276025228</v>
+        <v>0.137683534300335</v>
       </c>
       <c r="H38" t="n">
-        <v>3.65996634014139</v>
+        <v>3.63455954077941</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0244283060095386</v>
+        <v>0.0250892019342226</v>
       </c>
       <c r="J38" t="n">
-        <v>0.587714842648742</v>
+        <v>0.589554230751635</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0947551523080754</v>
+        <v>0.0953546105385737</v>
       </c>
       <c r="L38" t="n">
-        <v>6.20245789630433</v>
+        <v>6.1827553740901</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00567625899004498</v>
+        <v>0.00576488300603397</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2910,40 +2910,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.268448894833242</v>
+        <v>0.272685575718582</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0203278729283599</v>
+        <v>0.0228234409167864</v>
       </c>
       <c r="D39" t="n">
-        <v>13.2059510495426</v>
+        <v>11.9476102097307</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00491723313268522</v>
+        <v>0.00590426289908089</v>
       </c>
       <c r="F39" t="n">
-        <v>0.224001134457364</v>
+        <v>0.225223764896724</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0410268354982477</v>
+        <v>0.0416899295682164</v>
       </c>
       <c r="H39" t="n">
-        <v>5.45986868684841</v>
+        <v>5.40235417112411</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0323526020124648</v>
+        <v>0.0329649126782218</v>
       </c>
       <c r="J39" t="n">
-        <v>0.220470928780063</v>
+        <v>0.221120961177613</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0456721164024177</v>
+        <v>0.046014436780045</v>
       </c>
       <c r="L39" t="n">
-        <v>4.82725448581121</v>
+        <v>4.80546925380397</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0400117480077045</v>
+        <v>0.0402868073081449</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2963,40 +2963,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.322998612171513</v>
+        <v>0.318780675999347</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0345562294587173</v>
+        <v>0.0384325270629095</v>
       </c>
       <c r="D40" t="n">
-        <v>9.34704443253522</v>
+        <v>8.29455412800571</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00182197797068513</v>
+        <v>0.00264803256754058</v>
       </c>
       <c r="F40" t="n">
-        <v>0.274165056217081</v>
+        <v>0.272855475502545</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0592361099460373</v>
+        <v>0.0591438339951173</v>
       </c>
       <c r="H40" t="n">
-        <v>4.62834336128485</v>
+        <v>4.61342217897255</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0173382770535322</v>
+        <v>0.0173467050474957</v>
       </c>
       <c r="J40" t="n">
-        <v>0.277524110368661</v>
+        <v>0.276652686508505</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0655851365723738</v>
+        <v>0.0654268128557382</v>
       </c>
       <c r="L40" t="n">
-        <v>4.23150922408174</v>
+        <v>4.22842982002663</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0222248249138386</v>
+        <v>0.0221107713436984</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3016,40 +3016,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>0.37413683071306</v>
+        <v>0.37833781666083</v>
       </c>
       <c r="C41" t="n">
-        <v>0.108182570245067</v>
+        <v>0.114325080640546</v>
       </c>
       <c r="D41" t="n">
-        <v>3.4583836367127</v>
+        <v>3.30931598334382</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00900215699649463</v>
+        <v>0.0110121151563212</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3128792861693</v>
+        <v>0.314972045566893</v>
       </c>
       <c r="G41" t="n">
-        <v>0.140197032967694</v>
+        <v>0.139538675314529</v>
       </c>
       <c r="H41" t="n">
-        <v>2.23171118208612</v>
+        <v>2.25723832376168</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0570161636679279</v>
+        <v>0.0544411776419183</v>
       </c>
       <c r="J41" t="n">
-        <v>0.244811137233498</v>
+        <v>0.247307351830578</v>
       </c>
       <c r="K41" t="n">
-        <v>0.148843965992305</v>
+        <v>0.147467113742082</v>
       </c>
       <c r="L41" t="n">
-        <v>1.64475016236906</v>
+        <v>1.67703392000412</v>
       </c>
       <c r="M41" t="n">
-        <v>0.139644286942369</v>
+        <v>0.132633579725016</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3069,40 +3069,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.286502779536627</v>
+        <v>0.281396573936414</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0633995972899075</v>
+        <v>0.0698858820063734</v>
       </c>
       <c r="D42" t="n">
-        <v>4.51899999027651</v>
+        <v>4.02651531121481</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00387921243632978</v>
+        <v>0.00659954179652181</v>
       </c>
       <c r="F42" t="n">
-        <v>0.218521834511155</v>
+        <v>0.219128905507456</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0818886636686691</v>
+        <v>0.0836850807111532</v>
       </c>
       <c r="H42" t="n">
-        <v>2.66852363588836</v>
+        <v>2.61849428411021</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0372067746534547</v>
+        <v>0.0395259053807787</v>
       </c>
       <c r="J42" t="n">
-        <v>0.174669326683059</v>
+        <v>0.175824482041168</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0893552570782898</v>
+        <v>0.0900751624176625</v>
       </c>
       <c r="L42" t="n">
-        <v>1.95477392594842</v>
+        <v>1.95197518740961</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0987642570873216</v>
+        <v>0.098828029945241</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3122,40 +3122,40 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.019225044729224</v>
+        <v>0.0450853607340389</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212904382585877</v>
+        <v>0.212150038810804</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0902989618894737</v>
+        <v>0.212516391638495</v>
       </c>
       <c r="E43" t="n">
-        <v>0.930336257151883</v>
+        <v>0.837174960591838</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0680014704576105</v>
+        <v>-0.0650448748015914</v>
       </c>
       <c r="G43" t="n">
-        <v>0.265082723842451</v>
+        <v>0.267698657126186</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.256529242916738</v>
+        <v>-0.242977964476418</v>
       </c>
       <c r="I43" t="n">
-        <v>0.804223261147303</v>
+        <v>0.814330809678818</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.167853785611395</v>
+        <v>-0.165576711673531</v>
       </c>
       <c r="K43" t="n">
-        <v>0.289310262897514</v>
+        <v>0.29197653937447</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.580186074044861</v>
+        <v>-0.567089095679614</v>
       </c>
       <c r="M43" t="n">
-        <v>0.578296373404791</v>
+        <v>0.586728036580058</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -3175,40 +3175,40 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>0.000108045502971197</v>
+        <v>0.000128935607651841</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000129151258399091</v>
+        <v>0.000127093189729944</v>
       </c>
       <c r="D44" t="n">
-        <v>0.836581108929846</v>
+        <v>1.014496590461</v>
       </c>
       <c r="E44" t="n">
-        <v>0.430349172855013</v>
+        <v>0.344016197137137</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000252585838404612</v>
+        <v>0.000248674414509523</v>
       </c>
       <c r="G44" t="n">
-        <v>0.000145225634435795</v>
+        <v>0.000148354400094679</v>
       </c>
       <c r="H44" t="n">
-        <v>1.73926483011016</v>
+        <v>1.67621866524229</v>
       </c>
       <c r="I44" t="n">
-        <v>0.125526088545072</v>
+        <v>0.137559925998377</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0000364152738282939</v>
+        <v>0.0000341970753307965</v>
       </c>
       <c r="K44" t="n">
-        <v>0.000185521283495609</v>
+        <v>0.000185799238044618</v>
       </c>
       <c r="L44" t="n">
-        <v>0.196286232728418</v>
+        <v>0.184053905121959</v>
       </c>
       <c r="M44" t="n">
-        <v>0.849945420153431</v>
+        <v>0.85917104483622</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -3228,40 +3228,40 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00998623269647828</v>
+        <v>0.00985154120992821</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0032015025871516</v>
+        <v>0.0034937492069095</v>
       </c>
       <c r="D45" t="n">
-        <v>3.11923305530204</v>
+        <v>2.81976198819454</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00944342897497956</v>
+        <v>0.0162094142921752</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00482521682300843</v>
+        <v>0.00452357658370559</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00425623418990927</v>
+        <v>0.00453081579981226</v>
       </c>
       <c r="H45" t="n">
-        <v>1.13368217248198</v>
+        <v>0.998402226789496</v>
       </c>
       <c r="I45" t="n">
-        <v>0.280375516948245</v>
+        <v>0.338940199883572</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.00546847434116845</v>
+        <v>-0.0055433576818766</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00494739259896908</v>
+        <v>0.00499860502763525</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.10532451827412</v>
+        <v>-1.10898093592705</v>
       </c>
       <c r="M45" t="n">
-        <v>0.291906681242457</v>
+        <v>0.29037413557218</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -3281,40 +3281,40 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00684060487176307</v>
+        <v>0.00582007405189516</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00265501127602771</v>
+        <v>0.00292682611534405</v>
       </c>
       <c r="D46" t="n">
-        <v>2.5764880674999</v>
+        <v>1.98852744322018</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0769523834597757</v>
+        <v>0.131147561411377</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0101947069824278</v>
+        <v>0.0111552476241945</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00558564216454463</v>
+        <v>0.00533049919851136</v>
       </c>
       <c r="H46" t="n">
-        <v>1.82516292345751</v>
+        <v>2.09272100206108</v>
       </c>
       <c r="I46" t="n">
-        <v>0.161506006954018</v>
+        <v>0.119184867497387</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0132165545315926</v>
+        <v>0.0139439793175973</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00543643448074322</v>
+        <v>0.00469801557934382</v>
       </c>
       <c r="L46" t="n">
-        <v>2.43110711228248</v>
+        <v>2.96805727484302</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0892354642070301</v>
+        <v>0.0521018383075789</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -3334,28 +3334,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00534678721291951</v>
+        <v>-0.00555636351163104</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0109522820727152</v>
+        <v>0.0110658582764662</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.488189326883725</v>
+        <v>-0.502117718554899</v>
       </c>
       <c r="E47" t="n">
-        <v>0.639725670733537</v>
+        <v>0.630471311661433</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0102507329327274</v>
+        <v>-0.0100249798793257</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0135799444007456</v>
+        <v>0.0136132389675053</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.75484351262621</v>
+        <v>-0.73641400869075</v>
       </c>
       <c r="I47" t="n">
-        <v>0.473448769712567</v>
+        <v>0.483965687930627</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3379,28 +3379,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0567671388076437</v>
+        <v>-0.0614742871438039</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0624866252025632</v>
+        <v>0.0640297566598125</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.908468630264819</v>
+        <v>-0.960089345183901</v>
       </c>
       <c r="E48" t="n">
-        <v>0.382806223139507</v>
+        <v>0.357359421493175</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0285523576214199</v>
+        <v>-0.0271885026285585</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0709115157580934</v>
+        <v>0.0720924386021074</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.402647684458234</v>
+        <v>-0.377133901359854</v>
       </c>
       <c r="I48" t="n">
-        <v>0.695045725203239</v>
+        <v>0.713401116577236</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3424,28 +3424,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0243012058387223</v>
+        <v>-0.0244758396686361</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00992832480612092</v>
+        <v>0.0103319421028689</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.44766426494632</v>
+        <v>-2.36894858923374</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0400273322653001</v>
+        <v>0.0449761770803751</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0197120870720972</v>
+        <v>-0.0196669825648996</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0108505336775924</v>
+        <v>0.0110505494471368</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.81669286118201</v>
+        <v>-1.77972893193969</v>
       </c>
       <c r="I49" t="n">
-        <v>0.109047552202492</v>
+        <v>0.115277590813219</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3469,28 +3469,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00273507443452036</v>
+        <v>-0.00316721256102276</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00648546328544253</v>
+        <v>0.00659645596772738</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.421723832846235</v>
+        <v>-0.480138513243792</v>
       </c>
       <c r="E50" t="n">
-        <v>0.680486475932665</v>
+        <v>0.639627840393976</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.00146799267716204</v>
+        <v>-0.00164654549732997</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0084426087445792</v>
+        <v>0.00845192197932672</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.173879036868149</v>
+        <v>-0.194813144437135</v>
       </c>
       <c r="I50" t="n">
-        <v>0.864758241060313</v>
+        <v>0.848683426197929</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3514,28 +3514,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.00225850564222831</v>
+        <v>-0.0021558523233265</v>
       </c>
       <c r="C51" t="n">
-        <v>0.000845727312786678</v>
+        <v>0.000869334312132302</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.67048918496734</v>
+        <v>-2.4798886840652</v>
       </c>
       <c r="E51" t="n">
-        <v>0.202344723205642</v>
+        <v>0.218942428935477</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.00228388241651979</v>
+        <v>-0.00227189200130351</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00221598185732692</v>
+        <v>0.00224075160669649</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.03064129743137</v>
+        <v>-1.01389729879651</v>
       </c>
       <c r="I51" t="n">
-        <v>0.474302720624119</v>
+        <v>0.479703021711051</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3559,28 +3559,28 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0326112285776047</v>
+        <v>0.0357023443547854</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0165042495219529</v>
+        <v>0.0153238668653004</v>
       </c>
       <c r="D52" t="n">
-        <v>1.97592920139915</v>
+        <v>2.32985216255241</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0790813610198823</v>
+        <v>0.0452330472141057</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0426408609423612</v>
+        <v>0.0427161839477494</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0148293609719495</v>
+        <v>0.0153763564378983</v>
       </c>
       <c r="H52" t="n">
-        <v>2.87543482305263</v>
+        <v>2.77804329785607</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0179337923152811</v>
+        <v>0.0210045002314812</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -3604,28 +3604,28 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0251156376370092</v>
+        <v>0.0254607803455507</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0268587488337379</v>
+        <v>0.0235560057150037</v>
       </c>
       <c r="D53" t="n">
-        <v>0.935100804303322</v>
+        <v>1.08086152863063</v>
       </c>
       <c r="E53" t="n">
-        <v>0.368864082236029</v>
+        <v>0.301776842855913</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0456328554605172</v>
+        <v>0.045505636299201</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0336119487423821</v>
+        <v>0.0335779583867702</v>
       </c>
       <c r="H53" t="n">
-        <v>1.35763789866125</v>
+        <v>1.35522344077746</v>
       </c>
       <c r="I53" t="n">
-        <v>0.201981733289191</v>
+        <v>0.202689760710491</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -3649,28 +3649,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.00000132909297624902</v>
+        <v>0.00000175896436504879</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00000519002530143692</v>
+        <v>0.00000533618176705366</v>
       </c>
       <c r="D54" t="n">
-        <v>0.256086030232077</v>
+        <v>0.329629769343481</v>
       </c>
       <c r="E54" t="n">
-        <v>0.802657641343495</v>
+        <v>0.747953554652803</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0000018605376863374</v>
+        <v>0.0000018771819569879</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000731568414054502</v>
+        <v>0.00000730209903739429</v>
       </c>
       <c r="H54" t="n">
-        <v>0.254321762748875</v>
+        <v>0.257074294305623</v>
       </c>
       <c r="I54" t="n">
-        <v>0.803966315882889</v>
+        <v>0.801885421054265</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3694,28 +3694,28 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0000105285950718662</v>
+        <v>0.0000105834147778864</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0000029905102157631</v>
+        <v>0.00000316148237113856</v>
       </c>
       <c r="D55" t="n">
-        <v>3.5206684853874</v>
+        <v>3.34761151113897</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00454243538914678</v>
+        <v>0.00633638973369501</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00001144988743221</v>
+        <v>0.0000115560069118422</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00000390588303184768</v>
+        <v>0.00000390261258213341</v>
       </c>
       <c r="H55" t="n">
-        <v>2.93144657401417</v>
+        <v>2.96109507890865</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0139422155946774</v>
+        <v>0.0132378659043828</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -3739,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.401615688778815</v>
+        <v>-0.359109054780144</v>
       </c>
       <c r="C56" t="n">
-        <v>0.196612488176355</v>
+        <v>0.147730052755452</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.04267639611264</v>
+        <v>-2.43084631787551</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0799443728682376</v>
+        <v>0.0596690410264106</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -3776,16 +3776,16 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.158579529540111</v>
+        <v>-0.0927889421310994</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0369951513164844</v>
+        <v>0.0432957187980406</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.28649495669047</v>
+        <v>-2.14314358802835</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00162172958876375</v>
+        <v>0.0588159188438642</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -3813,16 +3813,16 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.238148722785477</v>
+        <v>-0.16695721472047</v>
       </c>
       <c r="C58" t="n">
-        <v>0.157528870627076</v>
+        <v>0.10735483050273</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.51177826539019</v>
+        <v>-1.55519052043237</v>
       </c>
       <c r="E58" t="n">
-        <v>0.15644366417756</v>
+        <v>0.144667341101433</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3850,16 +3850,16 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>0.210436199361456</v>
+        <v>0.270861536082292</v>
       </c>
       <c r="C59" t="n">
-        <v>0.111107389258412</v>
+        <v>0.0968892336761457</v>
       </c>
       <c r="D59" t="n">
-        <v>1.89398923659366</v>
+        <v>2.7955793002518</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0862689238259637</v>
+        <v>0.021026555110625</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3887,16 +3887,16 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.51597025529281</v>
+        <v>-0.547734844316676</v>
       </c>
       <c r="C60" t="n">
-        <v>0.137485437978619</v>
+        <v>0.0995952507612816</v>
       </c>
       <c r="D60" t="n">
-        <v>-3.75290840163777</v>
+        <v>-5.49960806494211</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0142529106657183</v>
+        <v>0.00335844093452659</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
